--- a/data/API_3_correlation_matrix.xlsx
+++ b/data/API_3_correlation_matrix.xlsx
@@ -818,7 +818,7 @@
         <v>-0.01723428988048387</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3936317044224543</v>
+        <v>-0.3941323665197016</v>
       </c>
       <c r="E2" t="n">
         <v>0.002756861017843416</v>
@@ -878,7 +878,7 @@
         <v>-0.1409311305179536</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01988267935002354</v>
+        <v>0.01906587376192054</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.04131816076176469</v>
@@ -902,19 +902,19 @@
         <v>-0.002188504517786899</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.04342034717405616</v>
+        <v>-0.04347098005734934</v>
       </c>
       <c r="AG2" t="n">
         <v>0.04667625177785879</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.07308906252821924</v>
+        <v>-0.07318026039994029</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.1309512086537634</v>
+        <v>-0.1310171479831835</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2104800538063906</v>
+        <v>-0.2105250074279346</v>
       </c>
       <c r="AK2" t="n">
         <v>0.04039382295136383</v>
@@ -941,10 +941,10 @@
         <v>0.08271488908093041</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.02431992911547539</v>
+        <v>0.02382105219415361</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.004880620897465641</v>
+        <v>-0.005032030993718491</v>
       </c>
       <c r="AU2" t="n">
         <v>0.1413626024624987</v>
@@ -977,16 +977,16 @@
         <v>0.07938451769340066</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.09266299444242324</v>
+        <v>0.09181581046653731</v>
       </c>
       <c r="BF2" t="n">
         <v>-0.003781041601303397</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.03717308934617606</v>
+        <v>-0.03720485320502458</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.09373531780764821</v>
+        <v>-0.09373878545402464</v>
       </c>
       <c r="BI2" t="n">
         <v>0.02928266209424402</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06701982350756719</v>
+        <v>-0.06752304349853427</v>
       </c>
       <c r="E3" t="n">
         <v>0.1210323010994877</v>
@@ -1107,7 +1107,7 @@
         <v>-0.03839210061192444</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.04283069497109652</v>
+        <v>-0.0478519397247598</v>
       </c>
       <c r="Y3" t="n">
         <v>0.2149902786193582</v>
@@ -1131,19 +1131,19 @@
         <v>0.006193028160630814</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.02363849384348765</v>
+        <v>-0.02357048217368603</v>
       </c>
       <c r="AG3" t="n">
         <v>-0.01947913030898082</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02589397796613267</v>
+        <v>0.02601581147585191</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.05252040999910966</v>
+        <v>-0.05243324234401291</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.06865356216841512</v>
+        <v>-0.06859360155812445</v>
       </c>
       <c r="AK3" t="n">
         <v>-0.002432570141763582</v>
@@ -1170,10 +1170,10 @@
         <v>-0.06489720012942808</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.02206938424134095</v>
+        <v>-0.02172337153398735</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.04032195531272399</v>
+        <v>0.04042813130811176</v>
       </c>
       <c r="AU3" t="n">
         <v>-0.1791282879159988</v>
@@ -1206,16 +1206,16 @@
         <v>0.1115928318155772</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.2501741609757926</v>
+        <v>-0.2503896516124431</v>
       </c>
       <c r="BF3" t="n">
         <v>0.1376071078009807</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.1242164250367191</v>
+        <v>-0.124346547533393</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.1476153022457303</v>
+        <v>-0.1476294377114805</v>
       </c>
       <c r="BI3" t="n">
         <v>-0.09422702925277418</v>
@@ -1270,226 +1270,226 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3936317044224543</v>
+        <v>-0.3941323665197016</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06701982350756719</v>
+        <v>-0.06752304349853427</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04942058071464391</v>
+        <v>-0.04941530738057651</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1220497358973612</v>
+        <v>-0.1294797053813598</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04548001816083294</v>
+        <v>-0.04521374890880066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0231023972523439</v>
+        <v>0.02387996421762116</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1768345190508153</v>
+        <v>-0.1801612576486827</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04827394074015386</v>
+        <v>0.04983005261993801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1032930883433845</v>
+        <v>0.1027355152640208</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02207899041373558</v>
+        <v>-0.02090309436403496</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00156687604317129</v>
+        <v>0.002022690335526516</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4399979721294398</v>
+        <v>-0.4406610577607061</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008115116404056192</v>
+        <v>0.01009252429852049</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1719434739975305</v>
+        <v>0.1721618514204848</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.06220035593779458</v>
+        <v>-0.06248017864205031</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1018006249297209</v>
+        <v>0.1032881337279158</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07342935502801802</v>
+        <v>0.07313432119921527</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1571359013890036</v>
+        <v>0.1570441280285614</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0709140824906894</v>
+        <v>0.07188411626529845</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07646207718024889</v>
+        <v>0.07591754102650533</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1160646494647312</v>
+        <v>0.1156729129274595</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1784260149351077</v>
+        <v>0.1802571327119378</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1414201478242811</v>
+        <v>-0.1405007625811425</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01600106766013358</v>
+        <v>0.01616076699235194</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09762622161324314</v>
+        <v>0.09842875841898602</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.0989360258635877</v>
+        <v>-0.09884682547987778</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01963855832341897</v>
+        <v>0.02087849891398688</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1214181763504059</v>
+        <v>-0.1219991202900814</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.02060278036625513</v>
+        <v>-0.0229562672396776</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1750476929814587</v>
+        <v>0.1771485458845049</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.01723013463522126</v>
+        <v>-0.01810474413666516</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03706003247331064</v>
+        <v>0.03809563810731793</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.110520503291348</v>
+        <v>0.1085429355601316</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.311878659261822</v>
+        <v>0.3122407538453578</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0008198910478053908</v>
+        <v>0.0003710755866027352</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.07920406800582748</v>
+        <v>-0.07845896787793606</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.05630179223484058</v>
+        <v>0.0573571229522228</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.04776642170272714</v>
+        <v>0.04898167784133162</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4110428138641404</v>
+        <v>0.4120795679716974</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01284595658087073</v>
+        <v>0.01354609706120979</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.002955259748358308</v>
+        <v>0.002518455292041651</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.3313445210693142</v>
+        <v>0.3327226010114586</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.08308234453014199</v>
+        <v>0.08558123788502903</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.02184807029600832</v>
+        <v>-0.02102639766817596</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1513440359381716</v>
+        <v>0.152154576300576</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02471767557577044</v>
+        <v>0.02634970307672062</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.219056854571534</v>
+        <v>0.2198367409387837</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.008982383011884913</v>
+        <v>0.008424756383056004</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.1507032536511244</v>
+        <v>-0.1500148042200216</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3112385376712267</v>
+        <v>0.3116532253600078</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.02763019858171022</v>
+        <v>-0.02767943956687377</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.2112168918540977</v>
+        <v>0.2141125030766841</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.03373507157582721</v>
+        <v>0.03729979635933157</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.2317945418963812</v>
+        <v>-0.2336628824688201</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.05454001386167203</v>
+        <v>0.05575235361860192</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.1822326866089382</v>
+        <v>-0.183604788496593</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.273467491648998</v>
+        <v>0.2750108984722667</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.3243707753263144</v>
+        <v>0.3254788487599038</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.05978381901506685</v>
+        <v>0.06106523402892005</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.04397816782622109</v>
+        <v>0.04437402923484066</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.054499505408127</v>
+        <v>0.05597646126136555</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.09220613020887883</v>
+        <v>0.09416169957114978</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1416242034585762</v>
+        <v>0.1420071908853893</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.01786973840975335</v>
+        <v>0.01726737587171626</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.02725009563268009</v>
+        <v>0.02758493273591829</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06280296603761876</v>
+        <v>0.06290519427220315</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1455783910962285</v>
+        <v>0.1454403033156571</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.03742148796321629</v>
+        <v>0.03797355748458782</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.01329656762079424</v>
+        <v>0.01300288946104599</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.007672411071931949</v>
+        <v>-0.007467271529903459</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.04112552134497711</v>
+        <v>-0.0398945993185815</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.03418839735938253</v>
+        <v>0.03416540888229096</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.3223260234763438</v>
+        <v>0.323414830532935</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1505,7 @@
         <v>0.1210323010994877</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04942058071464391</v>
+        <v>-0.04941530738057651</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>0.0005655261014664842</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02150384959871879</v>
+        <v>0.02183448882374716</v>
       </c>
       <c r="Y5" t="n">
         <v>0.04691763198553872</v>
@@ -1589,19 +1589,19 @@
         <v>-0.02726892958805047</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01558593358620754</v>
+        <v>0.0155896916985174</v>
       </c>
       <c r="AG5" t="n">
         <v>0.01728717480389624</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.008364346109646722</v>
+        <v>-0.008357851968135386</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.020323598459326</v>
+        <v>0.02032852529051939</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.03399223283446607</v>
+        <v>0.03399557041989611</v>
       </c>
       <c r="AK5" t="n">
         <v>0.006709645765268619</v>
@@ -1628,10 +1628,10 @@
         <v>0.06024959764015463</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.009516955173522794</v>
+        <v>-0.009482054919355156</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01618933259000294</v>
+        <v>0.01620080559001999</v>
       </c>
       <c r="AU5" t="n">
         <v>0.05594090706143921</v>
@@ -1664,16 +1664,16 @@
         <v>-0.0252675106799813</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.05501862308430621</v>
+        <v>0.05527443272127363</v>
       </c>
       <c r="BF5" t="n">
         <v>-0.02722456365447263</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01418578223197727</v>
+        <v>0.01417909520252262</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001592643613685953</v>
+        <v>0.001591878207614578</v>
       </c>
       <c r="BI5" t="n">
         <v>0.01024891491680225</v>
@@ -1734,7 +1734,7 @@
         <v>0.05895482859135985</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1220497358973612</v>
+        <v>-0.1294797053813598</v>
       </c>
       <c r="E6" t="n">
         <v>-0.01758219330164621</v>
@@ -1794,7 +1794,7 @@
         <v>-0.03804195610351324</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1141099347713336</v>
+        <v>-0.1155999743026639</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1764354207791152</v>
@@ -1818,19 +1818,19 @@
         <v>0.08219873192816646</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.1600834694964633</v>
+        <v>-0.1601633653739015</v>
       </c>
       <c r="AG6" t="n">
         <v>0.02445990465424168</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.04252148660645488</v>
+        <v>-0.04266380203223514</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.01136712884687942</v>
+        <v>-0.01146936232408785</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.1954978777578061</v>
+        <v>-0.195568325615536</v>
       </c>
       <c r="AK6" t="n">
         <v>0.05842580412226218</v>
@@ -1857,10 +1857,10 @@
         <v>-0.1855049139819131</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.08658256618896036</v>
+        <v>-0.08739562121621276</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.03199218365817753</v>
+        <v>-0.03223081775722313</v>
       </c>
       <c r="AU6" t="n">
         <v>-0.1856542983762633</v>
@@ -1893,16 +1893,16 @@
         <v>0.2029306589026372</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.2277081391839784</v>
+        <v>-0.2285828703772249</v>
       </c>
       <c r="BF6" t="n">
         <v>0.279721063784437</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.2305303377252231</v>
+        <v>-0.2306150719244857</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.2038798383370219</v>
+        <v>-0.203888782137734</v>
       </c>
       <c r="BI6" t="n">
         <v>-0.1060469949862819</v>
@@ -1963,7 +1963,7 @@
         <v>-0.03588172804770953</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04548001816083294</v>
+        <v>-0.04521374890880066</v>
       </c>
       <c r="E7" t="n">
         <v>0.09533864318227342</v>
@@ -2023,7 +2023,7 @@
         <v>0.01267196828125124</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03466293784067326</v>
+        <v>0.03556064184865292</v>
       </c>
       <c r="Y7" t="n">
         <v>0.001857544257481761</v>
@@ -2047,19 +2047,19 @@
         <v>-0.04777993574305812</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02581067500738769</v>
+        <v>-0.02579285068874217</v>
       </c>
       <c r="AG7" t="n">
         <v>0.01070926730571027</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.01261735831684642</v>
+        <v>-0.0125856199728298</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0235470971453428</v>
+        <v>0.02357029670570824</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.007392192122444039</v>
+        <v>-0.007376407407412727</v>
       </c>
       <c r="AK7" t="n">
         <v>-0.001737169403589291</v>
@@ -2086,10 +2086,10 @@
         <v>-0.07453125273772751</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.01025640483416853</v>
+        <v>-0.0100799584552429</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.003637791656823539</v>
+        <v>0.003691498513397948</v>
       </c>
       <c r="AU7" t="n">
         <v>0.04692280137474749</v>
@@ -2122,16 +2122,16 @@
         <v>-0.05125254053678833</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.09612373953389074</v>
+        <v>0.09632639412264249</v>
       </c>
       <c r="BF7" t="n">
         <v>-0.05780726378948026</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.04127547509170891</v>
+        <v>0.04124270014152425</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.03799248935509023</v>
+        <v>0.03798881497340826</v>
       </c>
       <c r="BI7" t="n">
         <v>0.03914621734858861</v>
@@ -2192,7 +2192,7 @@
         <v>-0.02728402313094404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0231023972523439</v>
+        <v>0.02387996421762116</v>
       </c>
       <c r="E8" t="n">
         <v>-0.1909381394407179</v>
@@ -2252,7 +2252,7 @@
         <v>-0.01918455475052716</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002660743687342359</v>
+        <v>0.002517991197325168</v>
       </c>
       <c r="Y8" t="n">
         <v>-0.0170065587395154</v>
@@ -2276,19 +2276,19 @@
         <v>0.007913773841089398</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.02880357020629579</v>
+        <v>-0.0288054384760631</v>
       </c>
       <c r="AG8" t="n">
         <v>0.003655012265540369</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.003873297969171879</v>
+        <v>0.003870176279320337</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01181048424174884</v>
+        <v>0.0118082796695501</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.01615517873627415</v>
+        <v>-0.01615678164810353</v>
       </c>
       <c r="AK8" t="n">
         <v>-0.003223011096131061</v>
@@ -2315,10 +2315,10 @@
         <v>-0.0192550288953211</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.02520009427675022</v>
+        <v>-0.02522366322083831</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.01743187275200996</v>
+        <v>0.01742691027952903</v>
       </c>
       <c r="AU8" t="n">
         <v>-0.03160926460802833</v>
@@ -2351,16 +2351,16 @@
         <v>0.01009432788376328</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.01924905886651335</v>
+        <v>-0.01919040745789002</v>
       </c>
       <c r="BF8" t="n">
         <v>0.02132688168276442</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.006124541434741063</v>
+        <v>-0.006121315873110226</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.007642190410829757</v>
+        <v>-0.007641826527231109</v>
       </c>
       <c r="BI8" t="n">
         <v>0.007226747294836384</v>
@@ -2421,7 +2421,7 @@
         <v>0.003870476716915729</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1768345190508153</v>
+        <v>-0.1801612576486827</v>
       </c>
       <c r="E9" t="n">
         <v>0.002332834543518572</v>
@@ -2481,7 +2481,7 @@
         <v>-0.005898702621773776</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.02242828509714524</v>
+        <v>-0.02342589609716075</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.00439351579990124</v>
@@ -2505,19 +2505,19 @@
         <v>0.004460386704808926</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.0247061078915267</v>
+        <v>-0.0247082541918823</v>
       </c>
       <c r="AG9" t="n">
         <v>0.003250604427438093</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.01038084299215174</v>
+        <v>-0.01038469889626729</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.007629211583080751</v>
+        <v>-0.00763193535544353</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.03777590261400122</v>
+        <v>-0.03777780075433521</v>
       </c>
       <c r="AK9" t="n">
         <v>-0.003747467798678903</v>
@@ -2544,10 +2544,10 @@
         <v>-0.06536404563491267</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.007328808036881927</v>
+        <v>-0.007172326176141932</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.006754014798466081</v>
+        <v>0.006801600479997726</v>
       </c>
       <c r="AU9" t="n">
         <v>-0.01300263529193331</v>
@@ -2580,16 +2580,16 @@
         <v>0.01446800950287274</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.0157725090929805</v>
+        <v>0.01547248437858929</v>
       </c>
       <c r="BF9" t="n">
         <v>0.043459501965274</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.08554338903777695</v>
+        <v>-0.0856083471947171</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.07461223476434137</v>
+        <v>-0.07461924143019834</v>
       </c>
       <c r="BI9" t="n">
         <v>-0.004793702786565138</v>
@@ -2650,7 +2650,7 @@
         <v>0.01467933255607805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04827394074015386</v>
+        <v>0.04983005261993801</v>
       </c>
       <c r="E10" t="n">
         <v>-0.0949102691546415</v>
@@ -2710,7 +2710,7 @@
         <v>-0.03639552065103092</v>
       </c>
       <c r="X10" t="n">
-        <v>0.007592927377821784</v>
+        <v>0.006594759585082834</v>
       </c>
       <c r="Y10" t="n">
         <v>0.003229671504163289</v>
@@ -2734,19 +2734,19 @@
         <v>-0.0534180839257563</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1113137254446079</v>
+        <v>0.1113017531122761</v>
       </c>
       <c r="AG10" t="n">
         <v>-0.06537798463542557</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.08629845492891738</v>
+        <v>0.08627782392732868</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.1079912929276357</v>
+        <v>-0.1080079255963835</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.03806529111693609</v>
+        <v>0.03805450342485517</v>
       </c>
       <c r="AK10" t="n">
         <v>0.03442372269260317</v>
@@ -2773,10 +2773,10 @@
         <v>0.02183259112790251</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1026887203831223</v>
+        <v>0.102589323472409</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0713849716432966</v>
+        <v>0.07134967171547336</v>
       </c>
       <c r="AU10" t="n">
         <v>-0.06425631125758718</v>
@@ -2809,16 +2809,16 @@
         <v>-0.01595555273925671</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.05901145414287179</v>
+        <v>-0.0588960568223654</v>
       </c>
       <c r="BF10" t="n">
         <v>0.01253493938697394</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.002696329642819327</v>
+        <v>-0.002673307056341741</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.007182778445249866</v>
+        <v>0.00718532183500663</v>
       </c>
       <c r="BI10" t="n">
         <v>-0.004928239514898538</v>
@@ -2879,7 +2879,7 @@
         <v>-0.2552401968765809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1032930883433845</v>
+        <v>0.1027355152640208</v>
       </c>
       <c r="E11" t="n">
         <v>0.01270705813297741</v>
@@ -2939,7 +2939,7 @@
         <v>-0.09003597485772949</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1069231097117141</v>
+        <v>0.1087275833561237</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.1406354517564196</v>
@@ -2963,19 +2963,19 @@
         <v>-0.02947929845967824</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07492854063390113</v>
+        <v>0.07483780091541616</v>
       </c>
       <c r="AG11" t="n">
         <v>-0.03488662561600905</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04215595857195599</v>
+        <v>0.04199434790487045</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.05407189671161112</v>
+        <v>0.05395531425655187</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.150743700750354</v>
+        <v>0.1506636964623142</v>
       </c>
       <c r="AK11" t="n">
         <v>-0.01194179821312994</v>
@@ -3002,10 +3002,10 @@
         <v>0.1205523812638474</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.06215439138630668</v>
+        <v>0.06142056315584223</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.0112947288351455</v>
+        <v>-0.0115193451836551</v>
       </c>
       <c r="AU11" t="n">
         <v>0.1101813540923417</v>
@@ -3038,16 +3038,16 @@
         <v>-0.05931660297008743</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.08537642747506481</v>
+        <v>0.08567243257796053</v>
       </c>
       <c r="BF11" t="n">
         <v>-0.03330248623293785</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1495625740644814</v>
+        <v>0.1496155498695392</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1760448588310645</v>
+        <v>0.1760504655816906</v>
       </c>
       <c r="BI11" t="n">
         <v>0.01945211055620327</v>
@@ -3108,7 +3108,7 @@
         <v>-0.01661529725204788</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02207899041373558</v>
+        <v>-0.02090309436403496</v>
       </c>
       <c r="E12" t="n">
         <v>-0.06523949828125808</v>
@@ -3168,7 +3168,7 @@
         <v>0.01811541597836748</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01990009596353452</v>
+        <v>0.02217954943765366</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.06025128661811728</v>
@@ -3192,19 +3192,19 @@
         <v>-0.0160863695437143</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00948113569666415</v>
+        <v>0.009412851245722012</v>
       </c>
       <c r="AG12" t="n">
         <v>-0.03811469713325914</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.03099124632118612</v>
+        <v>0.03086986558578169</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01383515533687953</v>
+        <v>0.01374740009595637</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.03645705631628161</v>
+        <v>0.03639683360090508</v>
       </c>
       <c r="AK12" t="n">
         <v>-0.01564242067008004</v>
@@ -3231,10 +3231,10 @@
         <v>0.03479597530259412</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0123083972648506</v>
+        <v>0.01195796982155953</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.04123346300738342</v>
+        <v>-0.04134031387056469</v>
       </c>
       <c r="AU12" t="n">
         <v>0.08743553811921827</v>
@@ -3267,16 +3267,16 @@
         <v>-0.05129860294558732</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.1312225215717173</v>
+        <v>0.1317435717227953</v>
       </c>
       <c r="BF12" t="n">
         <v>-0.1226174168939161</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.08995256467785355</v>
+        <v>0.08995885552147559</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.06480427707992301</v>
+        <v>0.06480481249471019</v>
       </c>
       <c r="BI12" t="n">
         <v>0.05712242782471274</v>
@@ -3337,7 +3337,7 @@
         <v>0.009794944010295799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00156687604317129</v>
+        <v>0.002022690335526516</v>
       </c>
       <c r="E13" t="n">
         <v>0.0002178725163666572</v>
@@ -3397,7 +3397,7 @@
         <v>-0.01297109263299704</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04159452726725527</v>
+        <v>0.04163012943138182</v>
       </c>
       <c r="Y13" t="n">
         <v>-0.05435370192223276</v>
@@ -3421,19 +3421,19 @@
         <v>-0.007023253011534334</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01912918248875345</v>
+        <v>0.01912904543383716</v>
       </c>
       <c r="AG13" t="n">
         <v>-0.004007185243625936</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.03360993431569014</v>
+        <v>0.03361009980928407</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01237866514691902</v>
+        <v>0.01237850910337772</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.04617715674328996</v>
+        <v>0.04617706949564676</v>
       </c>
       <c r="AK13" t="n">
         <v>-0.0003499906333133592</v>
@@ -3460,10 +3460,10 @@
         <v>0.02422423490147547</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01019523074239892</v>
+        <v>0.01019562697022525</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.0008444730115896764</v>
+        <v>-0.0008450714697918524</v>
       </c>
       <c r="AU13" t="n">
         <v>0.03052324871510818</v>
@@ -3496,16 +3496,16 @@
         <v>0.01573869186693436</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.02246775847474997</v>
+        <v>0.02265265797317928</v>
       </c>
       <c r="BF13" t="n">
         <v>-0.02579891142290416</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0393272071281312</v>
+        <v>0.03932833526533926</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.05933961095201915</v>
+        <v>0.05933968356423702</v>
       </c>
       <c r="BI13" t="n">
         <v>-0.001853975327603354</v>
@@ -3566,7 +3566,7 @@
         <v>-0.06386972685298269</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4399979721294398</v>
+        <v>-0.4406610577607061</v>
       </c>
       <c r="E14" t="n">
         <v>0.005715606866381321</v>
@@ -3626,7 +3626,7 @@
         <v>-0.1642637862779648</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06898050812245086</v>
+        <v>0.06844639365658196</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.1335739488793895</v>
@@ -3650,19 +3650,19 @@
         <v>-0.0703808577822896</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04723455703953878</v>
+        <v>0.04721010377075217</v>
       </c>
       <c r="AG14" t="n">
         <v>0.02428169969992937</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.02464906261712859</v>
+        <v>-0.02469330476261867</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0405359809073371</v>
+        <v>-0.04056791530832814</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.002860441487232497</v>
+        <v>-0.00288215102615065</v>
       </c>
       <c r="AK14" t="n">
         <v>0.00588026715385751</v>
@@ -3689,10 +3689,10 @@
         <v>-0.0936705451598035</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.08988461065710034</v>
+        <v>0.0896595213229664</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.005132807604798984</v>
+        <v>-0.005206596159762392</v>
       </c>
       <c r="AU14" t="n">
         <v>0.09921664665479545</v>
@@ -3725,16 +3725,16 @@
         <v>-0.03869389008435087</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.204203964591832</v>
+        <v>0.2038756871216807</v>
       </c>
       <c r="BF14" t="n">
         <v>-0.08193824377737835</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.01272160603386559</v>
+        <v>0.01276798458911395</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.0451230727305937</v>
+        <v>-0.0451180207595994</v>
       </c>
       <c r="BI14" t="n">
         <v>0.08330348451714627</v>
@@ -3795,7 +3795,7 @@
         <v>-0.08181824202018721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008115116404056192</v>
+        <v>0.01009252429852049</v>
       </c>
       <c r="E15" t="n">
         <v>0.02590041051223779</v>
@@ -3855,7 +3855,7 @@
         <v>-0.02955060581898454</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1213889989254534</v>
+        <v>0.1229469631462322</v>
       </c>
       <c r="Y15" t="n">
         <v>-0.07280658162715035</v>
@@ -3879,19 +3879,19 @@
         <v>-0.02960214875712069</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.005214698921140036</v>
+        <v>-0.005245228579408504</v>
       </c>
       <c r="AG15" t="n">
         <v>0.0129425486107347</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.01646622319899774</v>
+        <v>-0.01652090298908613</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.1529565912381709</v>
+        <v>-0.1529969857038593</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.1709376438449466</v>
+        <v>-0.1709648835929506</v>
       </c>
       <c r="AK15" t="n">
         <v>-0.04563466146334107</v>
@@ -3918,10 +3918,10 @@
         <v>0.2626319003402904</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02443854237992676</v>
+        <v>0.02413935373091724</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.05205370511778473</v>
+        <v>0.05196342191149479</v>
       </c>
       <c r="AU15" t="n">
         <v>0.232844482856076</v>
@@ -3954,16 +3954,16 @@
         <v>-0.09986710293550294</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.2282109551046049</v>
+        <v>0.228648566961024</v>
       </c>
       <c r="BF15" t="n">
         <v>-0.2113241471568987</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1948485789322708</v>
+        <v>0.1947408752982705</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1400329428142563</v>
+        <v>0.1400207498270087</v>
       </c>
       <c r="BI15" t="n">
         <v>0.09109604920126242</v>
@@ -4024,7 +4024,7 @@
         <v>-0.150806400733593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1719434739975305</v>
+        <v>0.1721618514204848</v>
       </c>
       <c r="E16" t="n">
         <v>0.07335002677171942</v>
@@ -4084,7 +4084,7 @@
         <v>0.1743243347757692</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3787485308659544</v>
+        <v>0.3831432997766227</v>
       </c>
       <c r="Y16" t="n">
         <v>-0.601021881490469</v>
@@ -4108,19 +4108,19 @@
         <v>0.01555841917624351</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2365695073728822</v>
+        <v>0.2364839286908239</v>
       </c>
       <c r="AG16" t="n">
         <v>0.05667464403956525</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.04204903013683482</v>
+        <v>-0.04220356746891882</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2735589608669319</v>
+        <v>0.2734500501613534</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.5132644496315926</v>
+        <v>0.5131892349002712</v>
       </c>
       <c r="AK16" t="n">
         <v>-0.1095868567791076</v>
@@ -4147,10 +4147,10 @@
         <v>0.537020810532482</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.1428392455362883</v>
+        <v>0.1422208029230709</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.03832565631055797</v>
+        <v>-0.03852178268067315</v>
       </c>
       <c r="AU16" t="n">
         <v>0.5105517422394595</v>
@@ -4183,16 +4183,16 @@
         <v>-0.2994336700876742</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.5312331580319273</v>
+        <v>0.5332733723765966</v>
       </c>
       <c r="BF16" t="n">
         <v>-0.528377259713772</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.5785253655874263</v>
+        <v>0.5786193343770927</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.5384669884150796</v>
+        <v>0.5384763876407396</v>
       </c>
       <c r="BI16" t="n">
         <v>0.1667667596579533</v>
@@ -4253,7 +4253,7 @@
         <v>0.179627584562553</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.06220035593779458</v>
+        <v>-0.06248017864205031</v>
       </c>
       <c r="E17" t="n">
         <v>0.01854272444512685</v>
@@ -4313,7 +4313,7 @@
         <v>-0.01200083045112903</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.1240977666649743</v>
+        <v>-0.1268465118591308</v>
       </c>
       <c r="Y17" t="n">
         <v>0.1830015229253814</v>
@@ -4337,19 +4337,19 @@
         <v>-0.08832226973235505</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.03703919446042271</v>
+        <v>-0.03696571590446904</v>
       </c>
       <c r="AG17" t="n">
         <v>-0.08404776391210124</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.04181455342880872</v>
+        <v>0.04194645113511605</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.138369065920452</v>
+        <v>-0.1382754610236265</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.1653936676634402</v>
+        <v>-0.165329022529552</v>
       </c>
       <c r="AK17" t="n">
         <v>-0.06813013212387101</v>
@@ -4376,10 +4376,10 @@
         <v>-0.1102425111394671</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.0352683898342285</v>
+        <v>-0.03454145751942788</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.08260564962869184</v>
+        <v>0.08282790643292751</v>
       </c>
       <c r="AU17" t="n">
         <v>-0.211361657539496</v>
@@ -4412,16 +4412,16 @@
         <v>0.1943402185661952</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.301604248393482</v>
+        <v>-0.3013553970243869</v>
       </c>
       <c r="BF17" t="n">
         <v>0.1936745743944216</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.1757321497517245</v>
+        <v>-0.1757770621279188</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.146983425530244</v>
+        <v>-0.1469880728862072</v>
       </c>
       <c r="BI17" t="n">
         <v>-0.07458210758417801</v>
@@ -4482,7 +4482,7 @@
         <v>-0.2756508425859839</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1018006249297209</v>
+        <v>0.1032881337279158</v>
       </c>
       <c r="E18" t="n">
         <v>0.0618927858652656</v>
@@ -4542,7 +4542,7 @@
         <v>0.1003863268733936</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2897749823269014</v>
+        <v>0.2950664797567702</v>
       </c>
       <c r="Y18" t="n">
         <v>-0.4839426534850388</v>
@@ -4566,19 +4566,19 @@
         <v>-0.1383074331928009</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2598778960669065</v>
+        <v>0.2598312780460015</v>
       </c>
       <c r="AG18" t="n">
         <v>0.03235811562763203</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02670172549952104</v>
+        <v>-0.02678665677005353</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.1284197688129453</v>
+        <v>0.1283597878930386</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.3929752517286527</v>
+        <v>0.3929341427712793</v>
       </c>
       <c r="AK18" t="n">
         <v>-0.1381328381218567</v>
@@ -4605,10 +4605,10 @@
         <v>0.2226153978614402</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.1995567872267419</v>
+        <v>0.1992527575645473</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.02802270673194943</v>
+        <v>-0.02812818987288015</v>
       </c>
       <c r="AU18" t="n">
         <v>0.4643086810848858</v>
@@ -4641,16 +4641,16 @@
         <v>-0.4526328003554524</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.7859466213423333</v>
+        <v>0.7877174413204382</v>
       </c>
       <c r="BF18" t="n">
         <v>-0.5850838630087991</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.5282176011870133</v>
+        <v>0.528398936053164</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.469790670737424</v>
+        <v>0.4698097546284402</v>
       </c>
       <c r="BI18" t="n">
         <v>0.309845879685033</v>
@@ -4711,7 +4711,7 @@
         <v>-0.1808224901506217</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07342935502801802</v>
+        <v>0.07313432119921527</v>
       </c>
       <c r="E19" t="n">
         <v>0.08015816874779065</v>
@@ -4771,7 +4771,7 @@
         <v>0.2217648628210653</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1680239739182099</v>
+        <v>0.1726736069103836</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.482913974429688</v>
@@ -4795,19 +4795,19 @@
         <v>-0.00562821707917103</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1283391914934554</v>
+        <v>0.1282460687298093</v>
       </c>
       <c r="AG19" t="n">
         <v>0.05593773951307943</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.06131367140028772</v>
+        <v>-0.06148138730698934</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1637342869326439</v>
+        <v>0.163615260180442</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.2788912719314327</v>
+        <v>0.2788092572024273</v>
       </c>
       <c r="AK19" t="n">
         <v>-0.1215113265158401</v>
@@ -4834,10 +4834,10 @@
         <v>0.3019814833222166</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.1222739195182207</v>
+        <v>0.1220007037699305</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.0435706420095613</v>
+        <v>-0.04366192292627935</v>
       </c>
       <c r="AU19" t="n">
         <v>0.4519989923526658</v>
@@ -4870,16 +4870,16 @@
         <v>-0.2643076245245002</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.6200042866023142</v>
+        <v>0.6209184247925249</v>
       </c>
       <c r="BF19" t="n">
         <v>-0.44974510577503</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.4126034710853161</v>
+        <v>0.4125337260706484</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.3617421318676511</v>
+        <v>0.3617337721186953</v>
       </c>
       <c r="BI19" t="n">
         <v>0.1701120469968142</v>
@@ -4940,7 +4940,7 @@
         <v>0.0006974652123450673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1571359013890036</v>
+        <v>0.1570441280285614</v>
       </c>
       <c r="E20" t="n">
         <v>-0.01000173704771239</v>
@@ -5000,7 +5000,7 @@
         <v>-0.06869173650567625</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2370289300169825</v>
+        <v>0.2372535149203179</v>
       </c>
       <c r="Y20" t="n">
         <v>-0.1598183574691239</v>
@@ -5024,19 +5024,19 @@
         <v>-0.06272135905942267</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.1788167479475572</v>
+        <v>0.178790499311181</v>
       </c>
       <c r="AG20" t="n">
         <v>-0.004117573693303876</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.04654858638959763</v>
+        <v>0.04650152985939756</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.03657758097450238</v>
+        <v>0.03654341627072304</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.2425453894909728</v>
+        <v>0.2425221965126723</v>
       </c>
       <c r="AK20" t="n">
         <v>-0.01878093821147814</v>
@@ -5063,10 +5063,10 @@
         <v>0.1095956648599982</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.1070458354210201</v>
+        <v>0.1068028496390047</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.03876669323262718</v>
+        <v>0.0386873156478503</v>
       </c>
       <c r="AU20" t="n">
         <v>0.009361398705621884</v>
@@ -5099,16 +5099,16 @@
         <v>-0.08064978895961192</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.02554257078760461</v>
+        <v>0.02590104671563725</v>
       </c>
       <c r="BF20" t="n">
         <v>-0.1234209875129046</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.1141336100338915</v>
+        <v>0.1141860587711096</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.1308483513422653</v>
+        <v>0.1308539510645316</v>
       </c>
       <c r="BI20" t="n">
         <v>0.04922372434670778</v>
@@ -5169,7 +5169,7 @@
         <v>0.001365035428079203</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0709140824906894</v>
+        <v>0.07188411626529845</v>
       </c>
       <c r="E21" t="n">
         <v>0.007420951140380555</v>
@@ -5229,7 +5229,7 @@
         <v>-0.01042031139276734</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01652058893827352</v>
+        <v>0.01600085073808435</v>
       </c>
       <c r="Y21" t="n">
         <v>0.006008991161086524</v>
@@ -5253,19 +5253,19 @@
         <v>-0.03629059130070482</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03282151604657552</v>
+        <v>0.03281501797169981</v>
       </c>
       <c r="AG21" t="n">
         <v>-0.06000896386686128</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1118827754592814</v>
+        <v>0.1118727120653539</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.03807837120051109</v>
+        <v>-0.03808713949282318</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.03925236206303728</v>
+        <v>0.03924661265858318</v>
       </c>
       <c r="AK21" t="n">
         <v>-0.001112678812680933</v>
@@ -5292,10 +5292,10 @@
         <v>0.07405219769845385</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.07196722987570542</v>
+        <v>0.07191780647685282</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.04983926738688849</v>
+        <v>0.04982059403129237</v>
       </c>
       <c r="AU21" t="n">
         <v>-0.0142167379794934</v>
@@ -5328,16 +5328,16 @@
         <v>-0.05778733838918651</v>
       </c>
       <c r="BE21" t="n">
-        <v>-0.03160733710936241</v>
+        <v>-0.03185514334627335</v>
       </c>
       <c r="BF21" t="n">
         <v>-0.01249108429177287</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.01899181041396656</v>
+        <v>0.01900455088295931</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.02621995694464564</v>
+        <v>0.02622133282057173</v>
       </c>
       <c r="BI21" t="n">
         <v>0.01836899326120099</v>
@@ -5398,7 +5398,7 @@
         <v>-0.0365763230726357</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07646207718024889</v>
+        <v>0.07591754102650533</v>
       </c>
       <c r="E22" t="n">
         <v>0.001317602982065105</v>
@@ -5458,7 +5458,7 @@
         <v>0.8651268330793342</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01698179201237033</v>
+        <v>0.0194369903813708</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.1529462932636189</v>
@@ -5482,19 +5482,19 @@
         <v>0.1205635730498764</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.06227850918305897</v>
+        <v>-0.06231266312335976</v>
       </c>
       <c r="AG22" t="n">
         <v>0.06418982426176473</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.06679822818294084</v>
+        <v>-0.06685983678204437</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.1249811955381538</v>
+        <v>0.1249384446520235</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.03827785129777491</v>
+        <v>0.03824794083679268</v>
       </c>
       <c r="AK22" t="n">
         <v>-0.0656320014608345</v>
@@ -5521,10 +5521,10 @@
         <v>0.09855553740183136</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.01395253563855911</v>
+        <v>-0.0142163901748244</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.05248908626068265</v>
+        <v>-0.05256841450889297</v>
       </c>
       <c r="AU22" t="n">
         <v>0.1329372544821694</v>
@@ -5557,16 +5557,16 @@
         <v>-0.008292216629477392</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.1824675008572258</v>
+        <v>0.1825525190334606</v>
       </c>
       <c r="BF22" t="n">
         <v>-0.1117617465952238</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.137614657380231</v>
+        <v>0.137503866436975</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.1090386558759142</v>
+        <v>0.109026228589194</v>
       </c>
       <c r="BI22" t="n">
         <v>0.04337973577750639</v>
@@ -5627,7 +5627,7 @@
         <v>-0.03839210061192444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1160646494647312</v>
+        <v>0.1156729129274595</v>
       </c>
       <c r="E23" t="n">
         <v>0.0005655261014664842</v>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.003004248834077438</v>
+        <v>-0.0007649133849029775</v>
       </c>
       <c r="Y23" t="n">
         <v>-0.1379041674803559</v>
@@ -5711,19 +5711,19 @@
         <v>0.1264362580438721</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.07156068527729156</v>
+        <v>-0.0716596628328804</v>
       </c>
       <c r="AG23" t="n">
         <v>0.05358786548533519</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.05958325422437593</v>
+        <v>-0.05976033274497366</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.1191845307602173</v>
+        <v>0.119058399634695</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.02533850103481557</v>
+        <v>0.02525138170161498</v>
       </c>
       <c r="AK23" t="n">
         <v>-0.01413888651106653</v>
@@ -5750,10 +5750,10 @@
         <v>0.1001858331860222</v>
       </c>
       <c r="AS23" t="n">
-        <v>-0.01450992583124838</v>
+        <v>-0.01506883022155001</v>
       </c>
       <c r="AT23" t="n">
-        <v>-0.08123280470556919</v>
+        <v>-0.08140121964290746</v>
       </c>
       <c r="AU23" t="n">
         <v>0.1276612899528211</v>
@@ -5786,16 +5786,16 @@
         <v>0.01287229169300447</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.1606186050921735</v>
+        <v>0.1607140398027066</v>
       </c>
       <c r="BF23" t="n">
         <v>-0.09992403789336619</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.1303916038644199</v>
+        <v>0.1304175609636217</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.1014278736287954</v>
+        <v>0.1014305069256038</v>
       </c>
       <c r="BI23" t="n">
         <v>0.002920034678916894</v>
@@ -5850,226 +5850,226 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01988267935002354</v>
+        <v>0.01906587376192054</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04283069497109652</v>
+        <v>-0.0478519397247598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1784260149351077</v>
+        <v>0.1802571327119378</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02150384959871879</v>
+        <v>0.02183448882374716</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1141099347713336</v>
+        <v>-0.1155999743026639</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03466293784067326</v>
+        <v>0.03556064184865292</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002660743687342359</v>
+        <v>0.002517991197325168</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02242828509714524</v>
+        <v>-0.02342589609716075</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007592927377821784</v>
+        <v>0.006594759585082834</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1069231097117141</v>
+        <v>0.1087275833561237</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01990009596353452</v>
+        <v>0.02217954943765366</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04159452726725527</v>
+        <v>0.04163012943138182</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06898050812245086</v>
+        <v>0.06844639365658196</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1213889989254534</v>
+        <v>0.1229469631462322</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3787485308659544</v>
+        <v>0.3831432997766227</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.1240977666649743</v>
+        <v>-0.1268465118591308</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2897749823269014</v>
+        <v>0.2950664797567702</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1680239739182099</v>
+        <v>0.1726736069103836</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2370289300169825</v>
+        <v>0.2372535149203179</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01652058893827352</v>
+        <v>0.01600085073808435</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01698179201237033</v>
+        <v>0.0194369903813708</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.003004248834077438</v>
+        <v>-0.0007649133849029775</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.2998984761840692</v>
+        <v>-0.303956793776354</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07042229092744866</v>
+        <v>0.07228263682836021</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.1647390873908808</v>
+        <v>0.1686350094618083</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.243901949580929</v>
+        <v>-0.2486841692712319</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.06773343278708938</v>
+        <v>0.06854656503517198</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.1507549611843929</v>
+        <v>-0.1503455676962404</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.08580981976874602</v>
+        <v>-0.08369296076507284</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2564154052564896</v>
+        <v>0.2566193776150604</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02111273173515207</v>
+        <v>0.02156378520801626</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.01554727577326084</v>
+        <v>-0.01664098558518928</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.08334045361627374</v>
+        <v>0.08518408672622121</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3470370877317283</v>
+        <v>0.3487988159720562</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.04460513242357615</v>
+        <v>-0.0451487196194236</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.146720199817349</v>
+        <v>-0.1506218587436342</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.1320765412751238</v>
+        <v>0.1335100323321013</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.116534674037638</v>
+        <v>0.1181021172007266</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.3466181557844366</v>
+        <v>0.3477201519193779</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.0945962504978249</v>
+        <v>0.09597079568313006</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-0.05693992542689303</v>
+        <v>-0.05748150506065001</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.3470956182156149</v>
+        <v>0.349104681424285</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.1117251141017749</v>
+        <v>0.1114320951329308</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.0197455553034125</v>
+        <v>0.01849319081864959</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.2247779993824295</v>
+        <v>0.229273077578701</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.1663864756504262</v>
+        <v>0.1694838276598273</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.07631653131215232</v>
+        <v>0.07621786560351665</v>
       </c>
       <c r="AX24" t="n">
-        <v>-0.04630044793450112</v>
+        <v>-0.04634913812724314</v>
       </c>
       <c r="AY24" t="n">
-        <v>-0.240469715950735</v>
+        <v>-0.244521360490598</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.2300291817356583</v>
+        <v>0.2304867177829511</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.07013105751707249</v>
+        <v>0.07019306936741815</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.2420414329306561</v>
+        <v>0.2430404885381801</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.06750558590112606</v>
+        <v>0.06799869430713457</v>
       </c>
       <c r="BD24" t="n">
-        <v>-0.1679576480680175</v>
+        <v>-0.1706886645747949</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.2183764164452667</v>
+        <v>0.2259806466514326</v>
       </c>
       <c r="BF24" t="n">
-        <v>-0.2456728133353039</v>
+        <v>-0.2494587112670374</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.3261382720140398</v>
+        <v>0.3284751635827664</v>
       </c>
       <c r="BH24" t="n">
-        <v>0.3341848092314667</v>
+        <v>0.3359705233013461</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.1139843598655659</v>
+        <v>0.1152204927946795</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.07128503642414842</v>
+        <v>0.0722557399610721</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.1627896388385631</v>
+        <v>0.1636907247859005</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.143098918133817</v>
+        <v>0.1420438124468228</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.136316319368301</v>
+        <v>0.1388130786261182</v>
       </c>
       <c r="BN24" t="n">
-        <v>-0.1058728076303876</v>
+        <v>-0.1063729386416935</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.01992474099908876</v>
+        <v>0.01946040211905014</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.05258357421744859</v>
+        <v>0.0513301784996003</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0.006449990660818247</v>
+        <v>0.006178364144578623</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.05313323663432296</v>
+        <v>0.052775005268664</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.009892108494404276</v>
+        <v>0.01196661716007967</v>
       </c>
       <c r="BT24" t="n">
-        <v>-0.01364073177839296</v>
+        <v>-0.01422131493572543</v>
       </c>
       <c r="BU24" t="n">
-        <v>-0.01777811064931857</v>
+        <v>-0.01964325505325526</v>
       </c>
       <c r="BV24" t="n">
-        <v>0.07309166731120542</v>
+        <v>0.0757717606380833</v>
       </c>
       <c r="BW24" t="n">
-        <v>0.4276869895813211</v>
+        <v>0.4314406114056214</v>
       </c>
     </row>
     <row r="25">
@@ -6085,7 +6085,7 @@
         <v>0.2149902786193582</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1414201478242811</v>
+        <v>-0.1405007625811425</v>
       </c>
       <c r="E25" t="n">
         <v>0.04691763198553872</v>
@@ -6145,7 +6145,7 @@
         <v>-0.1379041674803559</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.2998984761840692</v>
+        <v>-0.303956793776354</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
@@ -6169,19 +6169,19 @@
         <v>-0.05666119773466646</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.1693262761240973</v>
+        <v>-0.1692880772594076</v>
       </c>
       <c r="AG25" t="n">
         <v>-0.06422166231391234</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.06039444544819084</v>
+        <v>0.06046439357545563</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.2341692395188641</v>
+        <v>-0.2341212255876797</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.3951772110638975</v>
+        <v>-0.3951437727091393</v>
       </c>
       <c r="AK25" t="n">
         <v>0.02924751960344987</v>
@@ -6208,10 +6208,10 @@
         <v>-0.347173747293098</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.1078479020963229</v>
+        <v>-0.1074860218667375</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.06133511273065045</v>
+        <v>0.0614523859552826</v>
       </c>
       <c r="AU25" t="n">
         <v>-0.3869851413482641</v>
@@ -6244,16 +6244,16 @@
         <v>0.2360459253837292</v>
       </c>
       <c r="BE25" t="n">
-        <v>-0.4996492018219249</v>
+        <v>-0.5002766802425438</v>
       </c>
       <c r="BF25" t="n">
         <v>0.4234617786453707</v>
       </c>
       <c r="BG25" t="n">
-        <v>-0.4062183741508356</v>
+        <v>-0.4062988674964601</v>
       </c>
       <c r="BH25" t="n">
-        <v>-0.3994853837163623</v>
+        <v>-0.3994935923332023</v>
       </c>
       <c r="BI25" t="n">
         <v>-0.08227468592021306</v>
@@ -6314,7 +6314,7 @@
         <v>-0.06805108358921935</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01600106766013358</v>
+        <v>0.01616076699235194</v>
       </c>
       <c r="E26" t="n">
         <v>0.0453616584357046</v>
@@ -6374,7 +6374,7 @@
         <v>0.01745381423410972</v>
       </c>
       <c r="X26" t="n">
-        <v>0.07042229092744866</v>
+        <v>0.07228263682836021</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.02853750564919271</v>
@@ -6398,19 +6398,19 @@
         <v>-0.001404958809458357</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04102892755929509</v>
+        <v>0.04105069848928</v>
       </c>
       <c r="AG26" t="n">
         <v>0.05618114314478168</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.04474755773946513</v>
+        <v>-0.04470962063894176</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.08938424078279213</v>
+        <v>0.08941275655557954</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1177044061924324</v>
+        <v>0.1177237260880053</v>
       </c>
       <c r="AK26" t="n">
         <v>-0.03170083854979332</v>
@@ -6437,10 +6437,10 @@
         <v>0.04010644410960178</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.01420756198017376</v>
+        <v>0.01442704387851111</v>
       </c>
       <c r="AT26" t="n">
-        <v>-0.03675295010761276</v>
+        <v>-0.036688891050921</v>
       </c>
       <c r="AU26" t="n">
         <v>0.07233487968822928</v>
@@ -6473,16 +6473,16 @@
         <v>-0.1096524993424671</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.1952163762673638</v>
+        <v>0.1960564780903502</v>
       </c>
       <c r="BF26" t="n">
         <v>-0.1532783311251577</v>
       </c>
       <c r="BG26" t="n">
-        <v>0.1527159258682333</v>
+        <v>0.1526782862828931</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.1125307146376699</v>
+        <v>0.112526307353533</v>
       </c>
       <c r="BI26" t="n">
         <v>0.06609696082884163</v>
@@ -6543,7 +6543,7 @@
         <v>-0.2490877932315782</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09762622161324314</v>
+        <v>0.09842875841898602</v>
       </c>
       <c r="E27" t="n">
         <v>0.01188078752528593</v>
@@ -6603,7 +6603,7 @@
         <v>0.1432722514979253</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1647390873908808</v>
+        <v>0.1686350094618083</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.3940785835553524</v>
@@ -6627,19 +6627,19 @@
         <v>-0.03542472223803934</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.1080556635966541</v>
+        <v>0.1081046502711741</v>
       </c>
       <c r="AG27" t="n">
         <v>0.0838532042750789</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.07552892005519157</v>
+        <v>-0.07544325857049233</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.06889839228569798</v>
+        <v>0.06896150238171574</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.1539248690030187</v>
+        <v>0.1539680986396009</v>
       </c>
       <c r="AK27" t="n">
         <v>-0.01426308532216895</v>
@@ -6666,10 +6666,10 @@
         <v>0.2397100870926466</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.0955091062285804</v>
+        <v>0.09641138140754101</v>
       </c>
       <c r="AT27" t="n">
-        <v>-0.06443100839791674</v>
+        <v>-0.06416832349308733</v>
       </c>
       <c r="AU27" t="n">
         <v>0.385343940847133</v>
@@ -6702,16 +6702,16 @@
         <v>-0.3149211605321061</v>
       </c>
       <c r="BE27" t="n">
-        <v>0.5749387940740646</v>
+        <v>0.5755425993609981</v>
       </c>
       <c r="BF27" t="n">
         <v>-0.413529034410238</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.3658579849199026</v>
+        <v>0.3660700649876953</v>
       </c>
       <c r="BH27" t="n">
-        <v>0.3182542024610261</v>
+        <v>0.3182769340866339</v>
       </c>
       <c r="BI27" t="n">
         <v>0.225014325635573</v>
@@ -6772,7 +6772,7 @@
         <v>0.1690496903226038</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0989360258635877</v>
+        <v>-0.09884682547987778</v>
       </c>
       <c r="E28" t="n">
         <v>-0.02034319687889622</v>
@@ -6832,7 +6832,7 @@
         <v>-0.1299425074415027</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.243901949580929</v>
+        <v>-0.2486841692712319</v>
       </c>
       <c r="Y28" t="n">
         <v>0.560779656790101</v>
@@ -6856,19 +6856,19 @@
         <v>-0.03357828859094303</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.2339834250861886</v>
+        <v>-0.2339286262369887</v>
       </c>
       <c r="AG28" t="n">
         <v>-0.08684702467659092</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.08428245318578306</v>
+        <v>0.08438271557157009</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.1550801757606503</v>
+        <v>-0.1550099719448469</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.3707191670225831</v>
+        <v>-0.3706708654027026</v>
       </c>
       <c r="AK28" t="n">
         <v>0.07617731801967846</v>
@@ -6895,10 +6895,10 @@
         <v>-0.3202287028946971</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.1807217375684152</v>
+        <v>-0.1802088035692535</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.04621743157003665</v>
+        <v>0.0463846797099469</v>
       </c>
       <c r="AU28" t="n">
         <v>-0.4343292674728861</v>
@@ -6931,16 +6931,16 @@
         <v>0.2613716299141578</v>
       </c>
       <c r="BE28" t="n">
-        <v>-0.5688493345584678</v>
+        <v>-0.5696870282913824</v>
       </c>
       <c r="BF28" t="n">
         <v>0.4785926959806497</v>
       </c>
       <c r="BG28" t="n">
-        <v>-0.4689611799410409</v>
+        <v>-0.4689059683483025</v>
       </c>
       <c r="BH28" t="n">
-        <v>-0.4118229863741976</v>
+        <v>-0.4118161329596376</v>
       </c>
       <c r="BI28" t="n">
         <v>-0.09384503488171515</v>
@@ -7001,7 +7001,7 @@
         <v>-0.02789833455050359</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01963855832341897</v>
+        <v>0.02087849891398688</v>
       </c>
       <c r="E29" t="n">
         <v>0.02853372317461894</v>
@@ -7061,7 +7061,7 @@
         <v>-0.001132104322862468</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06773343278708938</v>
+        <v>0.06854656503517198</v>
       </c>
       <c r="Y29" t="n">
         <v>0.01075128050613551</v>
@@ -7085,19 +7085,19 @@
         <v>-0.06323954776694095</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.04140831920130557</v>
+        <v>0.04142496022711532</v>
       </c>
       <c r="AG29" t="n">
         <v>0.01347912711427451</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.01026499542141265</v>
+        <v>-0.01023568660493097</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.005304773272699648</v>
+        <v>0.00532605824701286</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.04452559162451122</v>
+        <v>0.04454025062307339</v>
       </c>
       <c r="AK29" t="n">
         <v>-0.02537858186424637</v>
@@ -7124,10 +7124,10 @@
         <v>-0.01216517120233658</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.02987246651988391</v>
+        <v>0.03004428035065243</v>
       </c>
       <c r="AT29" t="n">
-        <v>-0.02030291865395881</v>
+        <v>-0.02025387336791207</v>
       </c>
       <c r="AU29" t="n">
         <v>0.01050805407124413</v>
@@ -7160,16 +7160,16 @@
         <v>-0.09032088269393412</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.111076960853887</v>
+        <v>0.1116614049787115</v>
       </c>
       <c r="BF29" t="n">
         <v>-0.09392610408018756</v>
       </c>
       <c r="BG29" t="n">
-        <v>0.07587157665908859</v>
+        <v>0.07584206711678217</v>
       </c>
       <c r="BH29" t="n">
-        <v>0.07193884265003328</v>
+        <v>0.07193547224913992</v>
       </c>
       <c r="BI29" t="n">
         <v>0.1126671669082008</v>
@@ -7230,7 +7230,7 @@
         <v>0.01791458457739292</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1214181763504059</v>
+        <v>-0.1219991202900814</v>
       </c>
       <c r="E30" t="n">
         <v>0.03738155800686786</v>
@@ -7290,7 +7290,7 @@
         <v>-0.05475596038420495</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.1507549611843929</v>
+        <v>-0.1503455676962404</v>
       </c>
       <c r="Y30" t="n">
         <v>0.2048344287372596</v>
@@ -7314,19 +7314,19 @@
         <v>0.1562649322673663</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.290773198532884</v>
+        <v>-0.2907387462980697</v>
       </c>
       <c r="AG30" t="n">
         <v>0.06901301738860441</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.07641418918247492</v>
+        <v>-0.07635236292032337</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.05795225655230694</v>
+        <v>0.05799810814264603</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.2727369821762373</v>
+        <v>-0.2727063116390706</v>
       </c>
       <c r="AK30" t="n">
         <v>0.04499555159011284</v>
@@ -7353,10 +7353,10 @@
         <v>-0.05088615453163067</v>
       </c>
       <c r="AS30" t="n">
-        <v>-0.2690191990424607</v>
+        <v>-0.2687279890056911</v>
       </c>
       <c r="AT30" t="n">
-        <v>-0.06386906459406159</v>
+        <v>-0.06376466465525664</v>
       </c>
       <c r="AU30" t="n">
         <v>-0.06876480308348962</v>
@@ -7389,16 +7389,16 @@
         <v>0.2113917414122297</v>
       </c>
       <c r="BE30" t="n">
-        <v>-0.26127792205722</v>
+        <v>-0.2616118999484219</v>
       </c>
       <c r="BF30" t="n">
         <v>0.2364041333901938</v>
       </c>
       <c r="BG30" t="n">
-        <v>-0.2184962551189403</v>
+        <v>-0.2185667430224032</v>
       </c>
       <c r="BH30" t="n">
-        <v>-0.2261869344804723</v>
+        <v>-0.2261943484870394</v>
       </c>
       <c r="BI30" t="n">
         <v>-0.09601488820384378</v>
@@ -7459,7 +7459,7 @@
         <v>0.006193028160630814</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02060278036625513</v>
+        <v>-0.0229562672396776</v>
       </c>
       <c r="E31" t="n">
         <v>-0.02726892958805047</v>
@@ -7519,7 +7519,7 @@
         <v>0.1264362580438721</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.08580981976874602</v>
+        <v>-0.08369296076507284</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.05666119773466646</v>
@@ -7543,19 +7543,19 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.5560706880103164</v>
+        <v>-0.5560960626433727</v>
       </c>
       <c r="AG31" t="n">
         <v>0.1204327425916584</v>
       </c>
       <c r="AH31" t="n">
-        <v>-0.1182266426557974</v>
+        <v>-0.1182707680942406</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.5156823488952427</v>
+        <v>0.5156557025115239</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-0.09012796510162409</v>
+        <v>-0.0901490712005969</v>
       </c>
       <c r="AK31" t="n">
         <v>0.01646759277810086</v>
@@ -7582,10 +7582,10 @@
         <v>0.07951306256033004</v>
       </c>
       <c r="AS31" t="n">
-        <v>-0.4364170588037745</v>
+        <v>-0.4367538187067823</v>
       </c>
       <c r="AT31" t="n">
-        <v>-0.1128965734960989</v>
+        <v>-0.1129701224640995</v>
       </c>
       <c r="AU31" t="n">
         <v>0.07550340343847409</v>
@@ -7618,16 +7618,16 @@
         <v>0.1396954330429563</v>
       </c>
       <c r="BE31" t="n">
-        <v>-0.0411894838728149</v>
+        <v>-0.04185395745199822</v>
       </c>
       <c r="BF31" t="n">
         <v>0.07134569150703618</v>
       </c>
       <c r="BG31" t="n">
-        <v>-0.04333691381836016</v>
+        <v>-0.04317328259448736</v>
       </c>
       <c r="BH31" t="n">
-        <v>-0.06429857015926391</v>
+        <v>-0.06428050492375507</v>
       </c>
       <c r="BI31" t="n">
         <v>-0.1382481857642961</v>
@@ -7682,226 +7682,226 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.04342034717405616</v>
+        <v>-0.04347098005734934</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02363849384348765</v>
+        <v>-0.02357048217368603</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1750476929814587</v>
+        <v>0.1771485458845049</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01558593358620754</v>
+        <v>0.0155896916985174</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1600834694964633</v>
+        <v>-0.1601633653739015</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.02581067500738769</v>
+        <v>-0.02579285068874217</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.02880357020629579</v>
+        <v>-0.0288054384760631</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.0247061078915267</v>
+        <v>-0.0247082541918823</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1113137254446079</v>
+        <v>0.1113017531122761</v>
       </c>
       <c r="K32" t="n">
-        <v>0.07492854063390113</v>
+        <v>0.07483780091541616</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00948113569666415</v>
+        <v>0.009412851245722012</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01912918248875345</v>
+        <v>0.01912904543383716</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04723455703953878</v>
+        <v>0.04721010377075217</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.005214698921140036</v>
+        <v>-0.005245228579408504</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2365695073728822</v>
+        <v>0.2364839286908239</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.03703919446042271</v>
+        <v>-0.03696571590446904</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2598778960669065</v>
+        <v>0.2598312780460015</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1283391914934554</v>
+        <v>0.1282460687298093</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1788167479475572</v>
+        <v>0.178790499311181</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03282151604657552</v>
+        <v>0.03281501797169981</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.06227850918305897</v>
+        <v>-0.06231266312335976</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.07156068527729156</v>
+        <v>-0.0716596628328804</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2564154052564896</v>
+        <v>0.2566193776150604</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.1693262761240973</v>
+        <v>-0.1692880772594076</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.04102892755929509</v>
+        <v>0.04105069848928</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.1080556635966541</v>
+        <v>0.1081046502711741</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.2339834250861886</v>
+        <v>-0.2339286262369887</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.04140831920130557</v>
+        <v>0.04142496022711532</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.290773198532884</v>
+        <v>-0.2907387462980697</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.5560706880103164</v>
+        <v>-0.5560960626433727</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.01120827029558728</v>
+        <v>0.01122660953068387</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.05049644554508551</v>
+        <v>-0.050511159217676</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.499348339321352</v>
+        <v>-0.4993632115186283</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.5014846000073157</v>
+        <v>0.5014823290881462</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.05996905378071107</v>
+        <v>-0.05997519412329159</v>
       </c>
       <c r="AL32" t="n">
-        <v>-0.05259522981767963</v>
+        <v>-0.05251523705847313</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.1662729984420628</v>
+        <v>0.1662889968976236</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.1459643838745609</v>
+        <v>0.1457639880925334</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.4142349478091464</v>
+        <v>0.414197932581876</v>
       </c>
       <c r="AP32" t="n">
-        <v>-0.1767494314993575</v>
+        <v>-0.1767950860219375</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-0.06359560849235091</v>
+        <v>-0.06360154872746031</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.1616494635734965</v>
+        <v>0.1615801539586923</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.633192348187956</v>
+        <v>0.633020618053032</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.08613123628152536</v>
+        <v>0.08603748548058511</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.05557278451049704</v>
+        <v>0.05551446760390446</v>
       </c>
       <c r="AV32" t="n">
-        <v>-0.02698561733957291</v>
+        <v>-0.02702850317206146</v>
       </c>
       <c r="AW32" t="n">
-        <v>-0.1146724351457137</v>
+        <v>-0.1147321777754591</v>
       </c>
       <c r="AX32" t="n">
-        <v>-0.08429679625365689</v>
+        <v>-0.08430904814883759</v>
       </c>
       <c r="AY32" t="n">
-        <v>-0.1588337502938861</v>
+        <v>-0.1587828801099201</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.003700978797540219</v>
+        <v>0.00361101104310117</v>
       </c>
       <c r="BA32" t="n">
-        <v>0.04666748042072837</v>
+        <v>0.0466827687749703</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.2701140727880045</v>
+        <v>0.2700623265066201</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.08507162618655066</v>
+        <v>0.08504711945610956</v>
       </c>
       <c r="BD32" t="n">
-        <v>-0.2359993687418628</v>
+        <v>-0.2359101127881806</v>
       </c>
       <c r="BE32" t="n">
-        <v>0.165628976559118</v>
+        <v>0.1664729759988899</v>
       </c>
       <c r="BF32" t="n">
-        <v>-0.2307104891269669</v>
+        <v>-0.2306576254401539</v>
       </c>
       <c r="BG32" t="n">
-        <v>0.2223040878562733</v>
+        <v>0.2222225254282793</v>
       </c>
       <c r="BH32" t="n">
-        <v>0.2721759940397884</v>
+        <v>0.2721226481255093</v>
       </c>
       <c r="BI32" t="n">
-        <v>0.1365156327111479</v>
+        <v>0.1365294068657464</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.09889130428490311</v>
+        <v>0.09890237147722016</v>
       </c>
       <c r="BK32" t="n">
-        <v>0.2146588562789471</v>
+        <v>0.2146777022437044</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.216546099830266</v>
+        <v>0.2165043963958109</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.1102278638447814</v>
+        <v>0.1101881506006706</v>
       </c>
       <c r="BN32" t="n">
-        <v>-0.09831276004509844</v>
+        <v>-0.09833378194439832</v>
       </c>
       <c r="BO32" t="n">
-        <v>0.05619056450885761</v>
+        <v>0.05618476050618928</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.0880284907710602</v>
+        <v>0.08801265384324052</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0.06690136639133358</v>
+        <v>0.06689815047120241</v>
       </c>
       <c r="BR32" t="n">
-        <v>0.1000996202057502</v>
+        <v>0.100094739920731</v>
       </c>
       <c r="BS32" t="n">
-        <v>0.005848595435761023</v>
+        <v>0.005801556398219816</v>
       </c>
       <c r="BT32" t="n">
-        <v>0.02099415373029726</v>
+        <v>0.02100319897340513</v>
       </c>
       <c r="BU32" t="n">
-        <v>0.0313113294472181</v>
+        <v>0.03114714268861578</v>
       </c>
       <c r="BV32" t="n">
-        <v>0.02641821518619616</v>
+        <v>0.02621619566965106</v>
       </c>
       <c r="BW32" t="n">
-        <v>0.3777582482473542</v>
+        <v>0.3776784635627843</v>
       </c>
     </row>
     <row r="33">
@@ -7917,7 +7917,7 @@
         <v>-0.01947913030898082</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01723013463522126</v>
+        <v>-0.01810474413666516</v>
       </c>
       <c r="E33" t="n">
         <v>0.01728717480389624</v>
@@ -7977,7 +7977,7 @@
         <v>0.05358786548533519</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02111273173515207</v>
+        <v>0.02156378520801626</v>
       </c>
       <c r="Y33" t="n">
         <v>-0.06422166231391234</v>
@@ -8001,19 +8001,19 @@
         <v>0.1204327425916584</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.01120827029558728</v>
+        <v>0.01122660953068387</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.7405901386596354</v>
+        <v>-0.7405687423918215</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.2267917011656352</v>
+        <v>0.226816948933796</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.04844269829775481</v>
+        <v>-0.04842663011862515</v>
       </c>
       <c r="AK33" t="n">
         <v>0.0232200374620859</v>
@@ -8040,10 +8040,10 @@
         <v>0.05453278318760433</v>
       </c>
       <c r="AS33" t="n">
-        <v>-0.1655193770921524</v>
+        <v>-0.165374367294136</v>
       </c>
       <c r="AT33" t="n">
-        <v>-0.1082533035198737</v>
+        <v>-0.1082008172387834</v>
       </c>
       <c r="AU33" t="n">
         <v>0.08530165692632084</v>
@@ -8076,16 +8076,16 @@
         <v>0.02192137339701682</v>
       </c>
       <c r="BE33" t="n">
-        <v>0.06627928558233541</v>
+        <v>0.06587601152977063</v>
       </c>
       <c r="BF33" t="n">
         <v>-0.02201241165093726</v>
       </c>
       <c r="BG33" t="n">
-        <v>0.03594863207298075</v>
+        <v>0.03591499300065773</v>
       </c>
       <c r="BH33" t="n">
-        <v>0.007596196286278726</v>
+        <v>0.007592421488961939</v>
       </c>
       <c r="BI33" t="n">
         <v>-0.05292693310276576</v>
@@ -8140,226 +8140,226 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07308906252821924</v>
+        <v>-0.07318026039994029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02589397796613267</v>
+        <v>0.02601581147585191</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03706003247331064</v>
+        <v>0.03809563810731793</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.008364346109646722</v>
+        <v>-0.008357851968135386</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04252148660645488</v>
+        <v>-0.04266380203223514</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01261735831684642</v>
+        <v>-0.0125856199728298</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003873297969171879</v>
+        <v>0.003870176279320337</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01038084299215174</v>
+        <v>-0.01038469889626729</v>
       </c>
       <c r="J34" t="n">
-        <v>0.08629845492891738</v>
+        <v>0.08627782392732868</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04215595857195599</v>
+        <v>0.04199434790487045</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03099124632118612</v>
+        <v>0.03086986558578169</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03360993431569014</v>
+        <v>0.03361009980928407</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.02464906261712859</v>
+        <v>-0.02469330476261867</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.01646622319899774</v>
+        <v>-0.01652090298908613</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.04204903013683482</v>
+        <v>-0.04220356746891882</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04181455342880872</v>
+        <v>0.04194645113511605</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.02670172549952104</v>
+        <v>-0.02678665677005353</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.06131367140028772</v>
+        <v>-0.06148138730698934</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04654858638959763</v>
+        <v>0.04650152985939756</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1118827754592814</v>
+        <v>0.1118727120653539</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.06679822818294084</v>
+        <v>-0.06685983678204437</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.05958325422437593</v>
+        <v>-0.05976033274497366</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.01554727577326084</v>
+        <v>-0.01664098558518928</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.06039444544819084</v>
+        <v>0.06046439357545563</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.04474755773946513</v>
+        <v>-0.04470962063894176</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.07552892005519157</v>
+        <v>-0.07544325857049233</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.08428245318578306</v>
+        <v>0.08438271557157009</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.01026499542141265</v>
+        <v>-0.01023568660493097</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.07641418918247492</v>
+        <v>-0.07635236292032337</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.1182266426557974</v>
+        <v>-0.1182707680942406</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.05049644554508551</v>
+        <v>-0.050511159217676</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.7405901386596354</v>
+        <v>-0.7405687423918215</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.2403508766171109</v>
+        <v>-0.240377713713666</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.09706741784779242</v>
+        <v>0.09705788773403937</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.01017462330313925</v>
+        <v>-0.01018541439042952</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.07986402237307193</v>
+        <v>0.08000820015029017</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.05140461596321792</v>
+        <v>0.05143305729626929</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.02872661832774281</v>
+        <v>0.02836883076078332</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.09200220613149272</v>
+        <v>0.09193539380483821</v>
       </c>
       <c r="AP34" t="n">
-        <v>-0.1063275956391905</v>
+        <v>-0.1064097152919022</v>
       </c>
       <c r="AQ34" t="n">
-        <v>-0.003962917624417811</v>
+        <v>-0.003973238222213515</v>
       </c>
       <c r="AR34" t="n">
-        <v>-0.02182612734416639</v>
+        <v>-0.02195094225939557</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.1682237348384938</v>
+        <v>0.1680964155313919</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.1010019786464655</v>
+        <v>0.1009545094244532</v>
       </c>
       <c r="AU34" t="n">
-        <v>-0.08151261762590011</v>
+        <v>-0.08161817205714619</v>
       </c>
       <c r="AV34" t="n">
-        <v>-0.03302250667897377</v>
+        <v>-0.0330993634973869</v>
       </c>
       <c r="AW34" t="n">
-        <v>-0.03590392113358377</v>
+        <v>-0.03601042734624053</v>
       </c>
       <c r="AX34" t="n">
-        <v>-0.0385030792108151</v>
+        <v>-0.03852507398791073</v>
       </c>
       <c r="AY34" t="n">
-        <v>0.05472627564823648</v>
+        <v>0.05481868462288386</v>
       </c>
       <c r="AZ34" t="n">
-        <v>-0.05416595828173664</v>
+        <v>-0.05432728032740304</v>
       </c>
       <c r="BA34" t="n">
-        <v>-0.06295799533442893</v>
+        <v>-0.0629319280169712</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.07101615371083028</v>
+        <v>0.07092350627553766</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.01799545777239772</v>
+        <v>0.01795156886764163</v>
       </c>
       <c r="BD34" t="n">
-        <v>-0.04339228295789763</v>
+        <v>-0.04323248805025265</v>
       </c>
       <c r="BE34" t="n">
-        <v>-0.06804517732493356</v>
+        <v>-0.0677539771725529</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.0005704079967360264</v>
+        <v>0.0006659288553162076</v>
       </c>
       <c r="BG34" t="n">
-        <v>-0.0139829403289489</v>
+        <v>-0.01405366277912677</v>
       </c>
       <c r="BH34" t="n">
-        <v>0.004531547113419561</v>
+        <v>0.004444019374380042</v>
       </c>
       <c r="BI34" t="n">
-        <v>0.05068003677904283</v>
+        <v>0.05070465649794369</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0.02044731153759431</v>
+        <v>0.02046684167222956</v>
       </c>
       <c r="BK34" t="n">
-        <v>0.0740079757851702</v>
+        <v>0.07404158466505838</v>
       </c>
       <c r="BL34" t="n">
-        <v>0.08855671410601852</v>
+        <v>0.08848252971270444</v>
       </c>
       <c r="BM34" t="n">
-        <v>-0.004298920325091314</v>
+        <v>-0.004370405297315233</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.03337776393184973</v>
+        <v>0.03334129227132286</v>
       </c>
       <c r="BO34" t="n">
-        <v>-0.02368657253832783</v>
+        <v>-0.02369758183387663</v>
       </c>
       <c r="BP34" t="n">
-        <v>0.05621847593559941</v>
+        <v>0.05619061711143759</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0.04915255567705924</v>
+        <v>0.04914721351231181</v>
       </c>
       <c r="BR34" t="n">
-        <v>-0.005320097223010554</v>
+        <v>-0.005329411303015716</v>
       </c>
       <c r="BS34" t="n">
-        <v>-0.007933876900416118</v>
+        <v>-0.008017933819806276</v>
       </c>
       <c r="BT34" t="n">
-        <v>0.009296771445449959</v>
+        <v>0.009312936381613875</v>
       </c>
       <c r="BU34" t="n">
-        <v>0.01247142269033203</v>
+        <v>0.01217858039161174</v>
       </c>
       <c r="BV34" t="n">
-        <v>-0.02034454420150256</v>
+        <v>-0.02070534334476555</v>
       </c>
       <c r="BW34" t="n">
-        <v>0.006009884022402954</v>
+        <v>0.005865667380853772</v>
       </c>
     </row>
     <row r="35">
@@ -8369,226 +8369,226 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1309512086537634</v>
+        <v>-0.1310171479831835</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.05252040999910966</v>
+        <v>-0.05243324234401291</v>
       </c>
       <c r="D35" t="n">
-        <v>0.110520503291348</v>
+        <v>0.1085429355601316</v>
       </c>
       <c r="E35" t="n">
-        <v>0.020323598459326</v>
+        <v>0.02032852529051939</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01136712884687942</v>
+        <v>-0.01146936232408785</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0235470971453428</v>
+        <v>0.02357029670570824</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01181048424174884</v>
+        <v>0.0118082796695501</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.007629211583080751</v>
+        <v>-0.00763193535544353</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1079912929276357</v>
+        <v>-0.1080079255963835</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05407189671161112</v>
+        <v>0.05395531425655187</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01383515533687953</v>
+        <v>0.01374740009595637</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01237866514691902</v>
+        <v>0.01237850910337772</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0405359809073371</v>
+        <v>-0.04056791530832814</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.1529565912381709</v>
+        <v>-0.1529969857038593</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2735589608669319</v>
+        <v>0.2734500501613534</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.138369065920452</v>
+        <v>-0.1382754610236265</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1284197688129453</v>
+        <v>0.1283597878930386</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1637342869326439</v>
+        <v>0.163615260180442</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03657758097450238</v>
+        <v>0.03654341627072304</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.03807837120051109</v>
+        <v>-0.03808713949282318</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1249811955381538</v>
+        <v>0.1249384446520235</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1191845307602173</v>
+        <v>0.119058399634695</v>
       </c>
       <c r="X35" t="n">
-        <v>0.08334045361627374</v>
+        <v>0.08518408672622121</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.2341692395188641</v>
+        <v>-0.2341212255876797</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08938424078279213</v>
+        <v>0.08941275655557954</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.06889839228569798</v>
+        <v>0.06896150238171574</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1550801757606503</v>
+        <v>-0.1550099719448469</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.005304773272699648</v>
+        <v>0.00532605824701286</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.05795225655230694</v>
+        <v>0.05799810814264603</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.5156823488952427</v>
+        <v>0.5156557025115239</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.499348339321352</v>
+        <v>-0.4993632115186283</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.2267917011656352</v>
+        <v>0.226816948933796</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.2403508766171109</v>
+        <v>-0.240377713713666</v>
       </c>
       <c r="AI35" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.4231894247811053</v>
+        <v>0.4231855760504299</v>
       </c>
       <c r="AK35" t="n">
-        <v>-0.03594355007162926</v>
+        <v>-0.03595148929540037</v>
       </c>
       <c r="AL35" t="n">
-        <v>-0.189232103479949</v>
+        <v>-0.1891304433410636</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.02592620393341329</v>
+        <v>0.02594634244481584</v>
       </c>
       <c r="AN35" t="n">
-        <v>-0.0009287704864554984</v>
+        <v>-0.001187068933539884</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.3003484637074531</v>
+        <v>0.3003015376916369</v>
       </c>
       <c r="AP35" t="n">
-        <v>-0.003233686013969138</v>
+        <v>-0.003291755954902686</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.04403751634080417</v>
+        <v>0.04403044908931421</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.2350229670011939</v>
+        <v>0.2349349760195189</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.4040980537193309</v>
+        <v>-0.4046172283159877</v>
       </c>
       <c r="AT35" t="n">
-        <v>-0.107639652643292</v>
+        <v>-0.1077704302964995</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.2709948226232234</v>
+        <v>0.270921643454976</v>
       </c>
       <c r="AV35" t="n">
-        <v>-0.03981438285402981</v>
+        <v>-0.03986973631781834</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.1835953509561946</v>
+        <v>0.1835203291212786</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.06739716779402913</v>
+        <v>0.06738223710332801</v>
       </c>
       <c r="AY35" t="n">
-        <v>-0.1940142669164394</v>
+        <v>-0.1939496942101399</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.2502153194580083</v>
+        <v>0.2501014741931732</v>
       </c>
       <c r="BA35" t="n">
-        <v>0.05614725205105324</v>
+        <v>0.0561671592271638</v>
       </c>
       <c r="BB35" t="n">
-        <v>-0.005551106339158686</v>
+        <v>-0.005618728216071654</v>
       </c>
       <c r="BC35" t="n">
-        <v>-0.07060184394060291</v>
+        <v>-0.07063421687103207</v>
       </c>
       <c r="BD35" t="n">
-        <v>-0.05779386982203481</v>
+        <v>-0.05767861099878284</v>
       </c>
       <c r="BE35" t="n">
-        <v>0.1650676723633447</v>
+        <v>0.1650096789196037</v>
       </c>
       <c r="BF35" t="n">
-        <v>-0.08470085181789908</v>
+        <v>-0.0846326206484532</v>
       </c>
       <c r="BG35" t="n">
-        <v>0.1789546387326395</v>
+        <v>0.1789464110600746</v>
       </c>
       <c r="BH35" t="n">
-        <v>0.1652343616139579</v>
+        <v>0.1651766688411864</v>
       </c>
       <c r="BI35" t="n">
-        <v>-0.0270651751660157</v>
+        <v>-0.02704818229113504</v>
       </c>
       <c r="BJ35" t="n">
-        <v>-0.002887878681284583</v>
+        <v>-0.002874042601965725</v>
       </c>
       <c r="BK35" t="n">
-        <v>-0.01205281075572399</v>
+        <v>-0.01202947929662232</v>
       </c>
       <c r="BL35" t="n">
-        <v>-0.04217576091273371</v>
+        <v>-0.04223053769051414</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.1172634315348016</v>
+        <v>0.1172128165036916</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.002983936536457143</v>
+        <v>0.002957295868723094</v>
       </c>
       <c r="BO35" t="n">
-        <v>-0.005000268365624746</v>
+        <v>-0.005007984392682548</v>
       </c>
       <c r="BP35" t="n">
-        <v>-0.05572868296504858</v>
+        <v>-0.0557498048686158</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-0.02934307234366733</v>
+        <v>-0.02934768334535152</v>
       </c>
       <c r="BR35" t="n">
-        <v>-0.009844333919691516</v>
+        <v>-0.009851065321381629</v>
       </c>
       <c r="BS35" t="n">
-        <v>0.02188466604076814</v>
+        <v>0.02182430958021553</v>
       </c>
       <c r="BT35" t="n">
-        <v>-0.0336141293329763</v>
+        <v>-0.03360282827887878</v>
       </c>
       <c r="BU35" t="n">
-        <v>-0.1191720081938918</v>
+        <v>-0.1193841890436231</v>
       </c>
       <c r="BV35" t="n">
-        <v>0.09638987151321818</v>
+        <v>0.09613067048128504</v>
       </c>
       <c r="BW35" t="n">
-        <v>0.1926879971211717</v>
+        <v>0.1925853937607585</v>
       </c>
     </row>
     <row r="36">
@@ -8598,226 +8598,226 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2104800538063906</v>
+        <v>-0.2105250074279346</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.06865356216841512</v>
+        <v>-0.06859360155812445</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311878659261822</v>
+        <v>0.3122407538453578</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03399223283446607</v>
+        <v>0.03399557041989611</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1954978777578061</v>
+        <v>-0.195568325615536</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.007392192122444039</v>
+        <v>-0.007376407407412727</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01615517873627415</v>
+        <v>-0.01615678164810353</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.03777590261400122</v>
+        <v>-0.03777780075433521</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03806529111693609</v>
+        <v>0.03805450342485517</v>
       </c>
       <c r="K36" t="n">
-        <v>0.150743700750354</v>
+        <v>0.1506636964623142</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03645705631628161</v>
+        <v>0.03639683360090508</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04617715674328996</v>
+        <v>0.04617706949564676</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.002860441487232497</v>
+        <v>-0.00288215102615065</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.1709376438449466</v>
+        <v>-0.1709648835929506</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5132644496315926</v>
+        <v>0.5131892349002712</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.1653936676634402</v>
+        <v>-0.165329022529552</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3929752517286527</v>
+        <v>0.3929341427712793</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2788912719314327</v>
+        <v>0.2788092572024273</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2425453894909728</v>
+        <v>0.2425221965126723</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03925236206303728</v>
+        <v>0.03924661265858318</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03827785129777491</v>
+        <v>0.03824794083679268</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02533850103481557</v>
+        <v>0.02525138170161498</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3470370877317283</v>
+        <v>0.3487988159720562</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.3951772110638975</v>
+        <v>-0.3951437727091393</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1177044061924324</v>
+        <v>0.1177237260880053</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.1539248690030187</v>
+        <v>0.1539680986396009</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.3707191670225831</v>
+        <v>-0.3706708654027026</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04452559162451122</v>
+        <v>0.04454025062307339</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.2727369821762373</v>
+        <v>-0.2727063116390706</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.09012796510162409</v>
+        <v>-0.0901490712005969</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.5014846000073157</v>
+        <v>0.5014823290881462</v>
       </c>
       <c r="AG36" t="n">
-        <v>-0.04844269829775481</v>
+        <v>-0.04842663011862515</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.09706741784779242</v>
+        <v>0.09705788773403937</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.4231894247811053</v>
+        <v>0.4231855760504299</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.1037960067993232</v>
+        <v>-0.1038014573954648</v>
       </c>
       <c r="AL36" t="n">
-        <v>-0.2191996760368222</v>
+        <v>-0.2191293386877738</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.2204648567875014</v>
+        <v>0.2204789414541442</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.1619119677016009</v>
+        <v>0.1617350219855002</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.7795487949985326</v>
+        <v>0.7795164582181721</v>
       </c>
       <c r="AP36" t="n">
-        <v>-0.2297888427234864</v>
+        <v>-0.2298290897045117</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-0.02201453136657829</v>
+        <v>-0.02201964776943596</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.4034086502544803</v>
+        <v>0.4033477902538285</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.3060656277706053</v>
+        <v>0.3054004745337043</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.0180989299910142</v>
+        <v>0.01787834424259784</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.3066109339904911</v>
+        <v>0.3065598770747409</v>
       </c>
       <c r="AV36" t="n">
-        <v>-0.08270719343583921</v>
+        <v>-0.08274512141800902</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.05693133408846479</v>
+        <v>0.05687901103019367</v>
       </c>
       <c r="AX36" t="n">
-        <v>-0.03309255989911662</v>
+        <v>-0.03310321265083613</v>
       </c>
       <c r="AY36" t="n">
-        <v>-0.3447893608483512</v>
+        <v>-0.344744675624896</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.2419142556869405</v>
+        <v>0.2418352837268641</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.08176276589190225</v>
+        <v>0.08177628481708644</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.3034787989440657</v>
+        <v>0.3034329752589643</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.02230064165996561</v>
+        <v>0.0222788317552017</v>
       </c>
       <c r="BD36" t="n">
-        <v>-0.3226706152328925</v>
+        <v>-0.3225918114298104</v>
       </c>
       <c r="BE36" t="n">
-        <v>0.3164256305255308</v>
+        <v>0.3175212493572462</v>
       </c>
       <c r="BF36" t="n">
-        <v>-0.3276426603782426</v>
+        <v>-0.3275959971448226</v>
       </c>
       <c r="BG36" t="n">
-        <v>0.4114318809042979</v>
+        <v>0.4114353165766636</v>
       </c>
       <c r="BH36" t="n">
-        <v>0.4564699751385528</v>
+        <v>0.4564309513624167</v>
       </c>
       <c r="BI36" t="n">
-        <v>0.1341733448590454</v>
+        <v>0.1341853878578743</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0.1080670397397589</v>
+        <v>0.1080767446428537</v>
       </c>
       <c r="BK36" t="n">
-        <v>0.24038520143636</v>
+        <v>0.2404017089454535</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.2167363398460726</v>
+        <v>0.2166993621149271</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.2346648969245096</v>
+        <v>0.234629985589358</v>
       </c>
       <c r="BN36" t="n">
-        <v>-0.0858960007323953</v>
+        <v>-0.08591445245120763</v>
       </c>
       <c r="BO36" t="n">
-        <v>0.04379176900895074</v>
+        <v>0.04378657938139093</v>
       </c>
       <c r="BP36" t="n">
-        <v>0.05610581410898641</v>
+        <v>0.05609170919365215</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0.05873935651686762</v>
+        <v>0.05873645010270135</v>
       </c>
       <c r="BR36" t="n">
-        <v>0.09177500955816766</v>
+        <v>0.09177060745594458</v>
       </c>
       <c r="BS36" t="n">
-        <v>0.02554360624766655</v>
+        <v>0.02550212324902689</v>
       </c>
       <c r="BT36" t="n">
-        <v>-0.00934135610993745</v>
+        <v>-0.009333445003687449</v>
       </c>
       <c r="BU36" t="n">
-        <v>-0.08658881287018762</v>
+        <v>-0.08673395338842733</v>
       </c>
       <c r="BV36" t="n">
-        <v>0.1190312228798392</v>
+        <v>0.1188530784999179</v>
       </c>
       <c r="BW36" t="n">
-        <v>0.5953489102866516</v>
+        <v>0.595278589176625</v>
       </c>
     </row>
     <row r="37">
@@ -8833,7 +8833,7 @@
         <v>-0.002432570141763582</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0008198910478053908</v>
+        <v>0.0003710755866027352</v>
       </c>
       <c r="E37" t="n">
         <v>0.006709645765268619</v>
@@ -8893,7 +8893,7 @@
         <v>-0.01413888651106653</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.04460513242357615</v>
+        <v>-0.0451487196194236</v>
       </c>
       <c r="Y37" t="n">
         <v>0.02924751960344987</v>
@@ -8917,19 +8917,19 @@
         <v>0.01646759277810086</v>
       </c>
       <c r="AF37" t="n">
-        <v>-0.05996905378071107</v>
+        <v>-0.05997519412329159</v>
       </c>
       <c r="AG37" t="n">
         <v>0.0232200374620859</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.01017462330313925</v>
+        <v>-0.01018541439042952</v>
       </c>
       <c r="AI37" t="n">
-        <v>-0.03594355007162926</v>
+        <v>-0.03595148929540037</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.1037960067993232</v>
+        <v>-0.1038014573954648</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
@@ -8956,10 +8956,10 @@
         <v>-0.006539848384572704</v>
       </c>
       <c r="AS37" t="n">
-        <v>-0.04122017744269139</v>
+        <v>-0.04128915645779489</v>
       </c>
       <c r="AT37" t="n">
-        <v>-0.01461437598014829</v>
+        <v>-0.01463255827901225</v>
       </c>
       <c r="AU37" t="n">
         <v>-0.0003660259647817165</v>
@@ -8992,16 +8992,16 @@
         <v>0.07554285049412063</v>
       </c>
       <c r="BE37" t="n">
-        <v>-0.09722890896684849</v>
+        <v>-0.09786953063532777</v>
       </c>
       <c r="BF37" t="n">
         <v>0.08990427025262716</v>
       </c>
       <c r="BG37" t="n">
-        <v>-0.05676050064647766</v>
+        <v>-0.05675041937639698</v>
       </c>
       <c r="BH37" t="n">
-        <v>-0.07773651511203614</v>
+        <v>-0.07773532691644364</v>
       </c>
       <c r="BI37" t="n">
         <v>-0.07246948857006072</v>
@@ -9062,7 +9062,7 @@
         <v>0.157408030772455</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.07920406800582748</v>
+        <v>-0.07845896787793606</v>
       </c>
       <c r="E38" t="n">
         <v>-0.0346768065745483</v>
@@ -9122,7 +9122,7 @@
         <v>-0.257642822979477</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.146720199817349</v>
+        <v>-0.1506218587436342</v>
       </c>
       <c r="Y38" t="n">
         <v>0.4296119645594992</v>
@@ -9146,19 +9146,19 @@
         <v>-0.07824986999321852</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.05259522981767963</v>
+        <v>-0.05251523705847313</v>
       </c>
       <c r="AG38" t="n">
         <v>-0.09013628760065048</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.07986402237307193</v>
+        <v>0.08000820015029017</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.189232103479949</v>
+        <v>-0.1891304433410636</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-0.2191996760368222</v>
+        <v>-0.2191293386877738</v>
       </c>
       <c r="AK38" t="n">
         <v>0.02196602257059231</v>
@@ -9185,10 +9185,10 @@
         <v>-0.2555024734632897</v>
       </c>
       <c r="AS38" t="n">
-        <v>-0.05569629366342869</v>
+        <v>-0.0549085073060993</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.05866290702986358</v>
+        <v>0.05890429615055568</v>
       </c>
       <c r="AU38" t="n">
         <v>-0.3183613484144462</v>
@@ -9221,16 +9221,16 @@
         <v>0.1615394974444257</v>
       </c>
       <c r="BE38" t="n">
-        <v>-0.405345181680079</v>
+        <v>-0.4059856526236087</v>
       </c>
       <c r="BF38" t="n">
         <v>0.3469711158297863</v>
       </c>
       <c r="BG38" t="n">
-        <v>-0.3054846343447111</v>
+        <v>-0.3053941620590401</v>
       </c>
       <c r="BH38" t="n">
-        <v>-0.2631375320214664</v>
+        <v>-0.2631270662618395</v>
       </c>
       <c r="BI38" t="n">
         <v>-0.06913335190345678</v>
@@ -9291,7 +9291,7 @@
         <v>0.0006477328989705655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05630179223484058</v>
+        <v>0.0573571229522228</v>
       </c>
       <c r="E39" t="n">
         <v>0.06816149600141649</v>
@@ -9351,7 +9351,7 @@
         <v>0.006615774213594526</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1320765412751238</v>
+        <v>0.1335100323321013</v>
       </c>
       <c r="Y39" t="n">
         <v>-0.06832673215143023</v>
@@ -9375,19 +9375,19 @@
         <v>-0.1254171687245885</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.1662729984420628</v>
+        <v>0.1662889968976236</v>
       </c>
       <c r="AG39" t="n">
         <v>-0.06805297196707363</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.05140461596321792</v>
+        <v>0.05143305729626929</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.02592620393341329</v>
+        <v>0.02594634244481584</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.2204648567875014</v>
+        <v>0.2204789414541442</v>
       </c>
       <c r="AK39" t="n">
         <v>-0.3343647170958423</v>
@@ -9414,10 +9414,10 @@
         <v>0.1199627270431809</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.1108344238253129</v>
+        <v>0.1110146356430195</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.04525977396838343</v>
+        <v>0.04530721482913987</v>
       </c>
       <c r="AU39" t="n">
         <v>0.1235362900860367</v>
@@ -9450,16 +9450,16 @@
         <v>-0.1687496319847095</v>
       </c>
       <c r="BE39" t="n">
-        <v>0.2490424952357338</v>
+        <v>0.2513335573478391</v>
       </c>
       <c r="BF39" t="n">
         <v>-0.2398680938687414</v>
       </c>
       <c r="BG39" t="n">
-        <v>0.274689352637094</v>
+        <v>0.2746656082019065</v>
       </c>
       <c r="BH39" t="n">
-        <v>0.2698158755256684</v>
+        <v>0.2698128228495798</v>
       </c>
       <c r="BI39" t="n">
         <v>0.2002290738896101</v>
@@ -9520,7 +9520,7 @@
         <v>-0.06451932227966507</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04776642170272714</v>
+        <v>0.04898167784133162</v>
       </c>
       <c r="E40" t="n">
         <v>0.02136835246104285</v>
@@ -9580,7 +9580,7 @@
         <v>-0.006927284744288088</v>
       </c>
       <c r="X40" t="n">
-        <v>0.116534674037638</v>
+        <v>0.1181021172007266</v>
       </c>
       <c r="Y40" t="n">
         <v>-0.1505614789037309</v>
@@ -9604,19 +9604,19 @@
         <v>-0.1240791001899219</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.1459643838745609</v>
+        <v>0.1457639880925334</v>
       </c>
       <c r="AG40" t="n">
         <v>-0.03786928864111493</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.02872661832774281</v>
+        <v>0.02836883076078332</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.0009287704864554984</v>
+        <v>-0.001187068933539884</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.1619119677016009</v>
+        <v>0.1617350219855002</v>
       </c>
       <c r="AK40" t="n">
         <v>-0.1657976644413708</v>
@@ -9643,10 +9643,10 @@
         <v>0.1184323326813951</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.1136190903835839</v>
+        <v>0.1127289126646892</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.01430280606584671</v>
+        <v>0.0140283221384244</v>
       </c>
       <c r="AU40" t="n">
         <v>0.1892755834568564</v>
@@ -9679,16 +9679,16 @@
         <v>-0.155161165115414</v>
       </c>
       <c r="BE40" t="n">
-        <v>0.3021963508534873</v>
+        <v>0.3030145897546754</v>
       </c>
       <c r="BF40" t="n">
         <v>-0.2239089759833</v>
       </c>
       <c r="BG40" t="n">
-        <v>0.2292425830112776</v>
+        <v>0.2292144464921642</v>
       </c>
       <c r="BH40" t="n">
-        <v>0.2133061978131373</v>
+        <v>0.2133027279789629</v>
       </c>
       <c r="BI40" t="n">
         <v>0.1455110993405787</v>
@@ -9749,7 +9749,7 @@
         <v>-0.04954661965424444</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4110428138641404</v>
+        <v>0.4120795679716974</v>
       </c>
       <c r="E41" t="n">
         <v>0.03332522803377062</v>
@@ -9809,7 +9809,7 @@
         <v>0.01356759675450333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.3466181557844366</v>
+        <v>0.3477201519193779</v>
       </c>
       <c r="Y41" t="n">
         <v>-0.3378946030826537</v>
@@ -9833,19 +9833,19 @@
         <v>-0.1015725474197545</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.4142349478091464</v>
+        <v>0.414197932581876</v>
       </c>
       <c r="AG41" t="n">
         <v>-0.03325589715392722</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.09200220613149272</v>
+        <v>0.09193539380483821</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.3003484637074531</v>
+        <v>0.3003015376916369</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.7795487949985326</v>
+        <v>0.7795164582181721</v>
       </c>
       <c r="AK41" t="n">
         <v>-0.03524258410160786</v>
@@ -9872,10 +9872,10 @@
         <v>0.5330954063739898</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.2325510584663774</v>
+        <v>0.2344609111246335</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.01568400779927143</v>
+        <v>0.01624126137304215</v>
       </c>
       <c r="AU41" t="n">
         <v>0.3565740166932588</v>
@@ -9908,16 +9908,16 @@
         <v>-0.3473426888808178</v>
       </c>
       <c r="BE41" t="n">
-        <v>0.22904888319005</v>
+        <v>0.2301207470529445</v>
       </c>
       <c r="BF41" t="n">
         <v>-0.3012303721430854</v>
       </c>
       <c r="BG41" t="n">
-        <v>0.4133456296163931</v>
+        <v>0.4134121716927044</v>
       </c>
       <c r="BH41" t="n">
-        <v>0.4623697772810926</v>
+        <v>0.4623764698764955</v>
       </c>
       <c r="BI41" t="n">
         <v>0.1195082362350874</v>
@@ -9978,7 +9978,7 @@
         <v>-0.03153437010658564</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01284595658087073</v>
+        <v>0.01354609706120979</v>
       </c>
       <c r="E42" t="n">
         <v>0.03852415411558791</v>
@@ -10038,7 +10038,7 @@
         <v>0.102450665371739</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0945962504978249</v>
+        <v>0.09597079568313006</v>
       </c>
       <c r="Y42" t="n">
         <v>-0.09774922507393405</v>
@@ -10062,19 +10062,19 @@
         <v>0.1734996568326814</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.1767494314993575</v>
+        <v>-0.1767950860219375</v>
       </c>
       <c r="AG42" t="n">
         <v>0.09229612591986167</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.1063275956391905</v>
+        <v>-0.1064097152919022</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.003233686013969138</v>
+        <v>-0.003291755954902686</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.2297888427234864</v>
+        <v>-0.2298290897045117</v>
       </c>
       <c r="AK42" t="n">
         <v>0.0229383606683961</v>
@@ -10101,10 +10101,10 @@
         <v>0.6590754945001971</v>
       </c>
       <c r="AS42" t="n">
-        <v>-0.1669226129890569</v>
+        <v>-0.1674115374112353</v>
       </c>
       <c r="AT42" t="n">
-        <v>-0.06361670666934971</v>
+        <v>-0.06375329938950698</v>
       </c>
       <c r="AU42" t="n">
         <v>0.3907159531939827</v>
@@ -10137,16 +10137,16 @@
         <v>0.1001449054875842</v>
       </c>
       <c r="BE42" t="n">
-        <v>0.07703188184814348</v>
+        <v>0.0773218657746771</v>
       </c>
       <c r="BF42" t="n">
         <v>-0.1213858154223264</v>
       </c>
       <c r="BG42" t="n">
-        <v>0.1715970744143828</v>
+        <v>0.1714585046022808</v>
       </c>
       <c r="BH42" t="n">
-        <v>0.1195973191947879</v>
+        <v>0.1195817678725053</v>
       </c>
       <c r="BI42" t="n">
         <v>-0.02870553994516312</v>
@@ -10207,7 +10207,7 @@
         <v>0.01321127742439411</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002955259748358308</v>
+        <v>0.002518455292041651</v>
       </c>
       <c r="E43" t="n">
         <v>0.006472413748145923</v>
@@ -10267,7 +10267,7 @@
         <v>-0.0001688756186492265</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.05693992542689303</v>
+        <v>-0.05748150506065001</v>
       </c>
       <c r="Y43" t="n">
         <v>0.01342831100334511</v>
@@ -10291,19 +10291,19 @@
         <v>0.07131826948013861</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.06359560849235091</v>
+        <v>-0.06360154872746031</v>
       </c>
       <c r="AG43" t="n">
         <v>-0.00372031943132246</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.003962917624417811</v>
+        <v>-0.003973238222213515</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.04403751634080417</v>
+        <v>0.04403044908931421</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.02201453136657829</v>
+        <v>-0.02201964776943596</v>
       </c>
       <c r="AK43" t="n">
         <v>0.008587754032813966</v>
@@ -10330,10 +10330,10 @@
         <v>0.09018226020999134</v>
       </c>
       <c r="AS43" t="n">
-        <v>-0.04405082116800113</v>
+        <v>-0.04411834135714934</v>
       </c>
       <c r="AT43" t="n">
-        <v>-0.01294858767526191</v>
+        <v>-0.01296610209668337</v>
       </c>
       <c r="AU43" t="n">
         <v>-0.00425396099169149</v>
@@ -10366,16 +10366,16 @@
         <v>0.07342280782692884</v>
       </c>
       <c r="BE43" t="n">
-        <v>-0.04737742695567789</v>
+        <v>-0.0480918466402319</v>
       </c>
       <c r="BF43" t="n">
         <v>0.07314166027893791</v>
       </c>
       <c r="BG43" t="n">
-        <v>-0.07526005772519359</v>
+        <v>-0.07525073175740231</v>
       </c>
       <c r="BH43" t="n">
-        <v>-0.06140182667993989</v>
+        <v>-0.06140067302181765</v>
       </c>
       <c r="BI43" t="n">
         <v>-0.01377142145675598</v>
@@ -10436,7 +10436,7 @@
         <v>-0.06489720012942808</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3313445210693142</v>
+        <v>0.3327226010114586</v>
       </c>
       <c r="E44" t="n">
         <v>0.06024959764015463</v>
@@ -10496,7 +10496,7 @@
         <v>0.1001858331860222</v>
       </c>
       <c r="X44" t="n">
-        <v>0.3470956182156149</v>
+        <v>0.349104681424285</v>
       </c>
       <c r="Y44" t="n">
         <v>-0.347173747293098</v>
@@ -10520,19 +10520,19 @@
         <v>0.07951306256033004</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.1616494635734965</v>
+        <v>0.1615801539586923</v>
       </c>
       <c r="AG44" t="n">
         <v>0.05453278318760433</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.02182612734416639</v>
+        <v>-0.02195094225939557</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.2350229670011939</v>
+        <v>0.2349349760195189</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.4034086502544803</v>
+        <v>0.4033477902538285</v>
       </c>
       <c r="AK44" t="n">
         <v>-0.006539848384572704</v>
@@ -10559,10 +10559,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.03072767719649072</v>
+        <v>0.03177951508670955</v>
       </c>
       <c r="AT44" t="n">
-        <v>-0.04468378546012806</v>
+        <v>-0.04437136884573162</v>
       </c>
       <c r="AU44" t="n">
         <v>0.6189217790253512</v>
@@ -10595,16 +10595,16 @@
         <v>-0.1757037101065227</v>
       </c>
       <c r="BE44" t="n">
-        <v>0.241150628088526</v>
+        <v>0.2421709333541806</v>
       </c>
       <c r="BF44" t="n">
         <v>-0.3336920098789775</v>
       </c>
       <c r="BG44" t="n">
-        <v>0.4646622077007561</v>
+        <v>0.4645936136076438</v>
       </c>
       <c r="BH44" t="n">
-        <v>0.4586149173458148</v>
+        <v>0.4586066261100251</v>
       </c>
       <c r="BI44" t="n">
         <v>0.06656990035083682</v>
@@ -10659,226 +10659,226 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02431992911547539</v>
+        <v>0.02382105219415361</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02206938424134095</v>
+        <v>-0.02172337153398735</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08308234453014199</v>
+        <v>0.08558123788502903</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.009516955173522794</v>
+        <v>-0.009482054919355156</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.08658256618896036</v>
+        <v>-0.08739562121621276</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01025640483416853</v>
+        <v>-0.0100799584552429</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.02520009427675022</v>
+        <v>-0.02522366322083831</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.007328808036881927</v>
+        <v>-0.007172326176141932</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1026887203831223</v>
+        <v>0.102589323472409</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06215439138630668</v>
+        <v>0.06142056315584223</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0123083972648506</v>
+        <v>0.01195796982155953</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01019523074239892</v>
+        <v>0.01019562697022525</v>
       </c>
       <c r="N45" t="n">
-        <v>0.08988461065710034</v>
+        <v>0.0896595213229664</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02443854237992676</v>
+        <v>0.02413935373091724</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1428392455362883</v>
+        <v>0.1422208029230709</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0352683898342285</v>
+        <v>-0.03454145751942788</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1995567872267419</v>
+        <v>0.1992527575645473</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1222739195182207</v>
+        <v>0.1220007037699305</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1070458354210201</v>
+        <v>0.1068028496390047</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07196722987570542</v>
+        <v>0.07191780647685282</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.01395253563855911</v>
+        <v>-0.0142163901748244</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.01450992583124838</v>
+        <v>-0.01506883022155001</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1117251141017749</v>
+        <v>0.1114320951329308</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.1078479020963229</v>
+        <v>-0.1074860218667375</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01420756198017376</v>
+        <v>0.01442704387851111</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0955091062285804</v>
+        <v>0.09641138140754101</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.1807217375684152</v>
+        <v>-0.1802088035692535</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.02987246651988391</v>
+        <v>0.03004428035065243</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.2690191990424607</v>
+        <v>-0.2687279890056911</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.4364170588037745</v>
+        <v>-0.4367538187067823</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.633192348187956</v>
+        <v>0.633020618053032</v>
       </c>
       <c r="AG45" t="n">
-        <v>-0.1655193770921524</v>
+        <v>-0.165374367294136</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1682237348384938</v>
+        <v>0.1680964155313919</v>
       </c>
       <c r="AI45" t="n">
-        <v>-0.4040980537193309</v>
+        <v>-0.4046172283159877</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.3060656277706053</v>
+        <v>0.3054004745337043</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.04122017744269139</v>
+        <v>-0.04128915645779489</v>
       </c>
       <c r="AL45" t="n">
-        <v>-0.05569629366342869</v>
+        <v>-0.0549085073060993</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.1108344238253129</v>
+        <v>0.1110146356430195</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.1136190903835839</v>
+        <v>0.1127289126646892</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.2325510584663774</v>
+        <v>0.2344609111246335</v>
       </c>
       <c r="AP45" t="n">
-        <v>-0.1669226129890569</v>
+        <v>-0.1674115374112353</v>
       </c>
       <c r="AQ45" t="n">
-        <v>-0.04405082116800113</v>
+        <v>-0.04411834135714934</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.03072767719649072</v>
+        <v>0.03177951508670955</v>
       </c>
       <c r="AS45" t="n">
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>-0.1466572297669834</v>
+        <v>-0.1468350640623181</v>
       </c>
       <c r="AU45" t="n">
-        <v>-0.0351258836887024</v>
+        <v>-0.03466742744717836</v>
       </c>
       <c r="AV45" t="n">
-        <v>-0.04539589251252365</v>
+        <v>-0.04526170421672882</v>
       </c>
       <c r="AW45" t="n">
-        <v>-0.1592138912436835</v>
+        <v>-0.1587990156774949</v>
       </c>
       <c r="AX45" t="n">
-        <v>-0.01547442649791645</v>
+        <v>-0.01559784439142651</v>
       </c>
       <c r="AY45" t="n">
-        <v>-0.1227504220724204</v>
+        <v>-0.123194074993494</v>
       </c>
       <c r="AZ45" t="n">
-        <v>-0.06743459220605884</v>
+        <v>-0.06703715279897675</v>
       </c>
       <c r="BA45" t="n">
-        <v>0.01849489018469672</v>
+        <v>0.01865043787743893</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.1585680535083319</v>
+        <v>0.1589743344808434</v>
       </c>
       <c r="BC45" t="n">
-        <v>0.04642535910489879</v>
+        <v>0.04618868534854747</v>
       </c>
       <c r="BD45" t="n">
-        <v>-0.1657483731868332</v>
+        <v>-0.1655350027833127</v>
       </c>
       <c r="BE45" t="n">
-        <v>0.1318146786871057</v>
+        <v>0.1316951740357108</v>
       </c>
       <c r="BF45" t="n">
-        <v>-0.1727504583837854</v>
+        <v>-0.1722551274642974</v>
       </c>
       <c r="BG45" t="n">
-        <v>0.1432761099512736</v>
+        <v>0.1432095360118787</v>
       </c>
       <c r="BH45" t="n">
-        <v>0.1625222034521991</v>
+        <v>0.1625289714373475</v>
       </c>
       <c r="BI45" t="n">
-        <v>0.1067427039361243</v>
+        <v>0.106900643381797</v>
       </c>
       <c r="BJ45" t="n">
-        <v>0.07850485200787521</v>
+        <v>0.07863041196032629</v>
       </c>
       <c r="BK45" t="n">
-        <v>0.133040840133511</v>
+        <v>0.133253138828858</v>
       </c>
       <c r="BL45" t="n">
-        <v>0.1803284219844245</v>
+        <v>0.1799467093021348</v>
       </c>
       <c r="BM45" t="n">
-        <v>0.07320204419234452</v>
+        <v>0.07440962688904081</v>
       </c>
       <c r="BN45" t="n">
-        <v>-0.06680499379125239</v>
+        <v>-0.06702732373684027</v>
       </c>
       <c r="BO45" t="n">
-        <v>0.02903311766609909</v>
+        <v>0.02898012354741633</v>
       </c>
       <c r="BP45" t="n">
-        <v>0.04543237295346995</v>
+        <v>0.04528197832422511</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0.0368149847767978</v>
+        <v>0.03678930245904862</v>
       </c>
       <c r="BR45" t="n">
-        <v>-0.003531253343129251</v>
+        <v>-0.003583761162881049</v>
       </c>
       <c r="BS45" t="n">
-        <v>-0.0008813139034555432</v>
+        <v>-0.001034060329259491</v>
       </c>
       <c r="BT45" t="n">
-        <v>0.04514552282601095</v>
+        <v>0.04524556420339827</v>
       </c>
       <c r="BU45" t="n">
-        <v>0.04794502903171623</v>
+        <v>0.04723144269357773</v>
       </c>
       <c r="BV45" t="n">
-        <v>-0.0007512396540970299</v>
+        <v>-0.00170004634109724</v>
       </c>
       <c r="BW45" t="n">
-        <v>0.2573270593710174</v>
+        <v>0.2574368860510616</v>
       </c>
     </row>
     <row r="46">
@@ -10888,226 +10888,226 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.004880620897465641</v>
+        <v>-0.005032030993718491</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04032195531272399</v>
+        <v>0.04042813130811176</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.02184807029600832</v>
+        <v>-0.02102639766817596</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01618933259000294</v>
+        <v>0.01620080559001999</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.03199218365817753</v>
+        <v>-0.03223081775722313</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003637791656823539</v>
+        <v>0.003691498513397948</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01743187275200996</v>
+        <v>0.01742691027952903</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006754014798466081</v>
+        <v>0.006801600479997726</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0713849716432966</v>
+        <v>0.07134967171547336</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0112947288351455</v>
+        <v>-0.0115193451836551</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.04123346300738342</v>
+        <v>-0.04134031387056469</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0008444730115896764</v>
+        <v>-0.0008450714697918524</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.005132807604798984</v>
+        <v>-0.005206596159762392</v>
       </c>
       <c r="O46" t="n">
-        <v>0.05205370511778473</v>
+        <v>0.05196342191149479</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.03832565631055797</v>
+        <v>-0.03852178268067315</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.08260564962869184</v>
+        <v>0.08282790643292751</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.02802270673194943</v>
+        <v>-0.02812818987288015</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.0435706420095613</v>
+        <v>-0.04366192292627935</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03876669323262718</v>
+        <v>0.0386873156478503</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04983926738688849</v>
+        <v>0.04982059403129237</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.05248908626068265</v>
+        <v>-0.05256841450889297</v>
       </c>
       <c r="W46" t="n">
-        <v>-0.08123280470556919</v>
+        <v>-0.08140121964290746</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0197455553034125</v>
+        <v>0.01849319081864959</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.06133511273065045</v>
+        <v>0.0614523859552826</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.03675295010761276</v>
+        <v>-0.036688891050921</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.06443100839791674</v>
+        <v>-0.06416832349308733</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.04621743157003665</v>
+        <v>0.0463846797099469</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.02030291865395881</v>
+        <v>-0.02025387336791207</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.06386906459406159</v>
+        <v>-0.06376466465525664</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.1128965734960989</v>
+        <v>-0.1129701224640995</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.08613123628152536</v>
+        <v>0.08603748548058511</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.1082533035198737</v>
+        <v>-0.1082008172387834</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.1010019786464655</v>
+        <v>0.1009545094244532</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.107639652643292</v>
+        <v>-0.1077704302964995</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.0180989299910142</v>
+        <v>0.01787834424259784</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.01461437598014829</v>
+        <v>-0.01463255827901225</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.05866290702986358</v>
+        <v>0.05890429615055568</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.04525977396838343</v>
+        <v>0.04530721482913987</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.01430280606584671</v>
+        <v>0.0140283221384244</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.01568400779927143</v>
+        <v>0.01624126137304215</v>
       </c>
       <c r="AP46" t="n">
-        <v>-0.06361670666934971</v>
+        <v>-0.06375329938950698</v>
       </c>
       <c r="AQ46" t="n">
-        <v>-0.01294858767526191</v>
+        <v>-0.01296610209668337</v>
       </c>
       <c r="AR46" t="n">
-        <v>-0.04468378546012806</v>
+        <v>-0.04437136884573162</v>
       </c>
       <c r="AS46" t="n">
-        <v>-0.1466572297669834</v>
+        <v>-0.1468350640623181</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.04629853115316524</v>
+        <v>-0.04615961819052943</v>
       </c>
       <c r="AV46" t="n">
-        <v>-0.05757260447152009</v>
+        <v>-0.05753049602560988</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.01938153727618272</v>
+        <v>0.01951731457046013</v>
       </c>
       <c r="AX46" t="n">
-        <v>-0.06540014964125856</v>
+        <v>-0.06543753100371436</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.04854705636544675</v>
+        <v>0.04842345564324364</v>
       </c>
       <c r="AZ46" t="n">
-        <v>-0.04586354649962272</v>
+        <v>-0.04574071098757353</v>
       </c>
       <c r="BA46" t="n">
-        <v>0.001818935364005745</v>
+        <v>0.001864363113046279</v>
       </c>
       <c r="BB46" t="n">
-        <v>0.04084465330314041</v>
+        <v>0.0409565344962624</v>
       </c>
       <c r="BC46" t="n">
-        <v>0.02837234798441563</v>
+        <v>0.02829879324105712</v>
       </c>
       <c r="BD46" t="n">
-        <v>-0.03238502866490414</v>
+        <v>-0.03231037092494451</v>
       </c>
       <c r="BE46" t="n">
-        <v>-0.05372275039320584</v>
+        <v>-0.05386252776416037</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.01951152363842145</v>
+        <v>0.01967236409339653</v>
       </c>
       <c r="BG46" t="n">
-        <v>-0.03028565543516439</v>
+        <v>-0.03031677966482279</v>
       </c>
       <c r="BH46" t="n">
-        <v>-0.01717492823087836</v>
+        <v>-0.01718436720757606</v>
       </c>
       <c r="BI46" t="n">
-        <v>0.03187571568747998</v>
+        <v>0.03191646523032815</v>
       </c>
       <c r="BJ46" t="n">
-        <v>0.03329354168664207</v>
+        <v>0.03332654577979621</v>
       </c>
       <c r="BK46" t="n">
-        <v>0.04554827890312639</v>
+        <v>0.04560382806163139</v>
       </c>
       <c r="BL46" t="n">
-        <v>0.05263770004476029</v>
+        <v>0.05251198979795314</v>
       </c>
       <c r="BM46" t="n">
-        <v>-0.03302706118659595</v>
+        <v>-0.03267058748437271</v>
       </c>
       <c r="BN46" t="n">
-        <v>-0.00969438037922069</v>
+        <v>-0.009756698803837525</v>
       </c>
       <c r="BO46" t="n">
-        <v>0.02679780244888289</v>
+        <v>0.02678049990675651</v>
       </c>
       <c r="BP46" t="n">
-        <v>0.04737150359322086</v>
+        <v>0.04732430958789959</v>
       </c>
       <c r="BQ46" t="n">
-        <v>0.07187536709072372</v>
+        <v>0.07186670423200346</v>
       </c>
       <c r="BR46" t="n">
-        <v>0.03688686618349338</v>
+        <v>0.03687216151022748</v>
       </c>
       <c r="BS46" t="n">
-        <v>0.02528249617430684</v>
+        <v>0.02523729100838402</v>
       </c>
       <c r="BT46" t="n">
-        <v>-0.01961777754413885</v>
+        <v>-0.01959129231217748</v>
       </c>
       <c r="BU46" t="n">
-        <v>-0.0001978942142822395</v>
+        <v>-0.0004152234434850064</v>
       </c>
       <c r="BV46" t="n">
-        <v>-0.03234750064236585</v>
+        <v>-0.03263274488087357</v>
       </c>
       <c r="BW46" t="n">
-        <v>-0.03543505496132868</v>
+        <v>-0.03542052485129384</v>
       </c>
     </row>
     <row r="47">
@@ -11123,7 +11123,7 @@
         <v>-0.1791282879159988</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1513440359381716</v>
+        <v>0.152154576300576</v>
       </c>
       <c r="E47" t="n">
         <v>0.05594090706143921</v>
@@ -11183,7 +11183,7 @@
         <v>0.1276612899528211</v>
       </c>
       <c r="X47" t="n">
-        <v>0.2247779993824295</v>
+        <v>0.229273077578701</v>
       </c>
       <c r="Y47" t="n">
         <v>-0.3869851413482641</v>
@@ -11207,19 +11207,19 @@
         <v>0.07550340343847409</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.05557278451049704</v>
+        <v>0.05551446760390446</v>
       </c>
       <c r="AG47" t="n">
         <v>0.08530165692632084</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.08151261762590011</v>
+        <v>-0.08161817205714619</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.2709948226232234</v>
+        <v>0.270921643454976</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.3066109339904911</v>
+        <v>0.3065598770747409</v>
       </c>
       <c r="AK47" t="n">
         <v>-0.0003660259647817165</v>
@@ -11246,10 +11246,10 @@
         <v>0.6189217790253512</v>
       </c>
       <c r="AS47" t="n">
-        <v>-0.0351258836887024</v>
+        <v>-0.03466742744717836</v>
       </c>
       <c r="AT47" t="n">
-        <v>-0.04629853115316524</v>
+        <v>-0.04615961819052943</v>
       </c>
       <c r="AU47" t="n">
         <v>1</v>
@@ -11282,16 +11282,16 @@
         <v>-0.2505098782650481</v>
       </c>
       <c r="BE47" t="n">
-        <v>0.4728138666423723</v>
+        <v>0.4735637467687369</v>
       </c>
       <c r="BF47" t="n">
         <v>-0.393728690323707</v>
       </c>
       <c r="BG47" t="n">
-        <v>0.4663782212998721</v>
+        <v>0.4662996844184119</v>
       </c>
       <c r="BH47" t="n">
-        <v>0.3950012262272005</v>
+        <v>0.3949918021085367</v>
       </c>
       <c r="BI47" t="n">
         <v>0.1366537973829185</v>
@@ -11352,7 +11352,7 @@
         <v>-0.1139732951700632</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02471767557577044</v>
+        <v>0.02634970307672062</v>
       </c>
       <c r="E48" t="n">
         <v>0.02668192653637272</v>
@@ -11412,7 +11412,7 @@
         <v>0.03686623223187509</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1663864756504262</v>
+        <v>0.1694838276598273</v>
       </c>
       <c r="Y48" t="n">
         <v>-0.1207019481275869</v>
@@ -11436,19 +11436,19 @@
         <v>0.05196087205905375</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.02698561733957291</v>
+        <v>-0.02702850317206146</v>
       </c>
       <c r="AG48" t="n">
         <v>0.05411865417860849</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.03302250667897377</v>
+        <v>-0.0330993634973869</v>
       </c>
       <c r="AI48" t="n">
-        <v>-0.03981438285402981</v>
+        <v>-0.03986973631781834</v>
       </c>
       <c r="AJ48" t="n">
-        <v>-0.08270719343583921</v>
+        <v>-0.08274512141800902</v>
       </c>
       <c r="AK48" t="n">
         <v>-0.04659290145286762</v>
@@ -11475,10 +11475,10 @@
         <v>0.4296292125534093</v>
       </c>
       <c r="AS48" t="n">
-        <v>-0.04539589251252365</v>
+        <v>-0.04526170421672882</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.05757260447152009</v>
+        <v>-0.05753049602560988</v>
       </c>
       <c r="AU48" t="n">
         <v>0.1489628210931638</v>
@@ -11511,16 +11511,16 @@
         <v>-0.07994972828359005</v>
       </c>
       <c r="BE48" t="n">
-        <v>0.2107908403772888</v>
+        <v>0.2114674708259443</v>
       </c>
       <c r="BF48" t="n">
         <v>-0.2268735721521832</v>
       </c>
       <c r="BG48" t="n">
-        <v>0.2208411912512615</v>
+        <v>0.2209257816362272</v>
       </c>
       <c r="BH48" t="n">
-        <v>0.1649323010110393</v>
+        <v>0.1649412283009052</v>
       </c>
       <c r="BI48" t="n">
         <v>0.0555203616311044</v>
@@ -11581,7 +11581,7 @@
         <v>0.03794767394877706</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219056854571534</v>
+        <v>0.2198367409387837</v>
       </c>
       <c r="E49" t="n">
         <v>0.04069058883060062</v>
@@ -11641,7 +11641,7 @@
         <v>0.02641606046831228</v>
       </c>
       <c r="X49" t="n">
-        <v>0.07631653131215232</v>
+        <v>0.07621786560351665</v>
       </c>
       <c r="Y49" t="n">
         <v>0.08004847175884815</v>
@@ -11665,19 +11665,19 @@
         <v>0.100701175880582</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.1146724351457137</v>
+        <v>-0.1147321777754591</v>
       </c>
       <c r="AG49" t="n">
         <v>0.04802345046501132</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.03590392113358377</v>
+        <v>-0.03601042734624053</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.1835953509561946</v>
+        <v>0.1835203291212786</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.05693133408846479</v>
+        <v>0.05687901103019367</v>
       </c>
       <c r="AK49" t="n">
         <v>-8.087391057707194e-05</v>
@@ -11704,10 +11704,10 @@
         <v>0.5317158649729623</v>
       </c>
       <c r="AS49" t="n">
-        <v>-0.1592138912436835</v>
+        <v>-0.1587990156774949</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.01938153727618272</v>
+        <v>0.01951731457046013</v>
       </c>
       <c r="AU49" t="n">
         <v>0.3532329476820847</v>
@@ -11740,16 +11740,16 @@
         <v>-0.0003644573220468309</v>
       </c>
       <c r="BE49" t="n">
-        <v>-0.04557704974273045</v>
+        <v>-0.04588230747654168</v>
       </c>
       <c r="BF49" t="n">
         <v>0.01053809984179958</v>
       </c>
       <c r="BG49" t="n">
-        <v>0.08883858675723671</v>
+        <v>0.08882095757347638</v>
       </c>
       <c r="BH49" t="n">
-        <v>0.07404810281464612</v>
+        <v>0.07404601326709359</v>
       </c>
       <c r="BI49" t="n">
         <v>0.03919609833026595</v>
@@ -11810,7 +11810,7 @@
         <v>0.03939557717332228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008982383011884913</v>
+        <v>0.008424756383056004</v>
       </c>
       <c r="E50" t="n">
         <v>0.01350550039101353</v>
@@ -11870,7 +11870,7 @@
         <v>-0.04583021353831721</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.04630044793450112</v>
+        <v>-0.04634913812724314</v>
       </c>
       <c r="Y50" t="n">
         <v>0.09661865255793939</v>
@@ -11894,19 +11894,19 @@
         <v>0.0702740199753239</v>
       </c>
       <c r="AF50" t="n">
-        <v>-0.08429679625365689</v>
+        <v>-0.08430904814883759</v>
       </c>
       <c r="AG50" t="n">
         <v>0.05368022961351703</v>
       </c>
       <c r="AH50" t="n">
-        <v>-0.0385030792108151</v>
+        <v>-0.03852507398791073</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.06739716779402913</v>
+        <v>0.06738223710332801</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.03309255989911662</v>
+        <v>-0.03310321265083613</v>
       </c>
       <c r="AK50" t="n">
         <v>0.1214437831397675</v>
@@ -11933,10 +11933,10 @@
         <v>0.1327829111808643</v>
       </c>
       <c r="AS50" t="n">
-        <v>-0.01547442649791645</v>
+        <v>-0.01559784439142651</v>
       </c>
       <c r="AT50" t="n">
-        <v>-0.06540014964125856</v>
+        <v>-0.06543753100371436</v>
       </c>
       <c r="AU50" t="n">
         <v>0.1787583941713603</v>
@@ -11969,16 +11969,16 @@
         <v>0.06432153590136341</v>
       </c>
       <c r="BE50" t="n">
-        <v>-0.07523671366445298</v>
+        <v>-0.07669488841608421</v>
       </c>
       <c r="BF50" t="n">
         <v>0.1455304046121473</v>
       </c>
       <c r="BG50" t="n">
-        <v>-0.03265590069993599</v>
+        <v>-0.03263402157938562</v>
       </c>
       <c r="BH50" t="n">
-        <v>-0.05353297320222297</v>
+        <v>-0.05353052492053582</v>
       </c>
       <c r="BI50" t="n">
         <v>-0.02433164330191806</v>
@@ -12039,7 +12039,7 @@
         <v>0.1726696661983363</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1507032536511244</v>
+        <v>-0.1500148042200216</v>
       </c>
       <c r="E51" t="n">
         <v>-0.03162128867065209</v>
@@ -12099,7 +12099,7 @@
         <v>-0.1671768927719713</v>
       </c>
       <c r="X51" t="n">
-        <v>-0.240469715950735</v>
+        <v>-0.244521360490598</v>
       </c>
       <c r="Y51" t="n">
         <v>0.6307390017411245</v>
@@ -12123,19 +12123,19 @@
         <v>-0.03121044071437265</v>
       </c>
       <c r="AF51" t="n">
-        <v>-0.1588337502938861</v>
+        <v>-0.1587828801099201</v>
       </c>
       <c r="AG51" t="n">
         <v>-0.06335480127196902</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.05472627564823648</v>
+        <v>0.05481868462288386</v>
       </c>
       <c r="AI51" t="n">
-        <v>-0.1940142669164394</v>
+        <v>-0.1939496942101399</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-0.3447893608483512</v>
+        <v>-0.344744675624896</v>
       </c>
       <c r="AK51" t="n">
         <v>0.01674013497262724</v>
@@ -12162,10 +12162,10 @@
         <v>-0.3537073257087717</v>
       </c>
       <c r="AS51" t="n">
-        <v>-0.1227504220724204</v>
+        <v>-0.123194074993494</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.04854705636544675</v>
+        <v>0.04842345564324364</v>
       </c>
       <c r="AU51" t="n">
         <v>-0.3616491301358914</v>
@@ -12198,16 +12198,16 @@
         <v>0.2025897613741807</v>
       </c>
       <c r="BE51" t="n">
-        <v>-0.4390038973324644</v>
+        <v>-0.4395583799981471</v>
       </c>
       <c r="BF51" t="n">
         <v>0.3788721561340413</v>
       </c>
       <c r="BG51" t="n">
-        <v>-0.3656591013541443</v>
+        <v>-0.3655881622131483</v>
       </c>
       <c r="BH51" t="n">
-        <v>-0.3523650958573773</v>
+        <v>-0.3523567000220638</v>
       </c>
       <c r="BI51" t="n">
         <v>-0.05747732229242559</v>
@@ -12268,7 +12268,7 @@
         <v>0.005876386148860393</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3112385376712267</v>
+        <v>0.3116532253600078</v>
       </c>
       <c r="E52" t="n">
         <v>0.05199330733835462</v>
@@ -12328,7 +12328,7 @@
         <v>0.09496944905005364</v>
       </c>
       <c r="X52" t="n">
-        <v>0.2300291817356583</v>
+        <v>0.2304867177829511</v>
       </c>
       <c r="Y52" t="n">
         <v>-0.1998381837606071</v>
@@ -12352,19 +12352,19 @@
         <v>0.1220577457091867</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.003700978797540219</v>
+        <v>0.00361101104310117</v>
       </c>
       <c r="AG52" t="n">
         <v>0.07722750688655348</v>
       </c>
       <c r="AH52" t="n">
-        <v>-0.05416595828173664</v>
+        <v>-0.05432728032740304</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.2502153194580083</v>
+        <v>0.2501014741931732</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.2419142556869405</v>
+        <v>0.2418352837268641</v>
       </c>
       <c r="AK52" t="n">
         <v>0.02156202538725924</v>
@@ -12391,10 +12391,10 @@
         <v>0.7997730965413317</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.06743459220605884</v>
+        <v>-0.06703715279897675</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.04586354649962272</v>
+        <v>-0.04574071098757353</v>
       </c>
       <c r="AU52" t="n">
         <v>0.5113359390997679</v>
@@ -12427,16 +12427,16 @@
         <v>-0.1036926574362717</v>
       </c>
       <c r="BE52" t="n">
-        <v>0.1294309939745057</v>
+        <v>0.1297904490066846</v>
       </c>
       <c r="BF52" t="n">
         <v>-0.2095429515446708</v>
       </c>
       <c r="BG52" t="n">
-        <v>0.3273114094464972</v>
+        <v>0.3273458042954155</v>
       </c>
       <c r="BH52" t="n">
-        <v>0.2972107914348124</v>
+        <v>0.2972140394951785</v>
       </c>
       <c r="BI52" t="n">
         <v>0.03787532533074882</v>
@@ -12497,7 +12497,7 @@
         <v>-0.03873927551341388</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02763019858171022</v>
+        <v>-0.02767943956687377</v>
       </c>
       <c r="E53" t="n">
         <v>0.02393737497209814</v>
@@ -12557,7 +12557,7 @@
         <v>0.006417305695699926</v>
       </c>
       <c r="X53" t="n">
-        <v>0.07013105751707249</v>
+        <v>0.07019306936741815</v>
       </c>
       <c r="Y53" t="n">
         <v>-0.06047263286802627</v>
@@ -12581,19 +12581,19 @@
         <v>-0.009805897329445526</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.04666748042072837</v>
+        <v>0.0466827687749703</v>
       </c>
       <c r="AG53" t="n">
         <v>0.06908373996045104</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.06295799533442893</v>
+        <v>-0.0629319280169712</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.05614725205105324</v>
+        <v>0.0561671592271638</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.08176276589190225</v>
+        <v>0.08177628481708644</v>
       </c>
       <c r="AK53" t="n">
         <v>-0.05446766411524762</v>
@@ -12620,10 +12620,10 @@
         <v>-0.06582765182173785</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.01849489018469672</v>
+        <v>0.01865043787743893</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.001818935364005745</v>
+        <v>0.001864363113046279</v>
       </c>
       <c r="AU53" t="n">
         <v>0.03777639821310121</v>
@@ -12656,16 +12656,16 @@
         <v>-0.04311457944300678</v>
       </c>
       <c r="BE53" t="n">
-        <v>0.1533746929975673</v>
+        <v>0.1537065074998541</v>
       </c>
       <c r="BF53" t="n">
         <v>-0.1125529258802021</v>
       </c>
       <c r="BG53" t="n">
-        <v>0.06571146448464313</v>
+        <v>0.06568432381948607</v>
       </c>
       <c r="BH53" t="n">
-        <v>0.05394347115862612</v>
+        <v>0.0539403733053759</v>
       </c>
       <c r="BI53" t="n">
         <v>0.03311270701033336</v>
@@ -12726,7 +12726,7 @@
         <v>-0.006269467130232445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2112168918540977</v>
+        <v>0.2141125030766841</v>
       </c>
       <c r="E54" t="n">
         <v>0.01711944530088903</v>
@@ -12786,7 +12786,7 @@
         <v>0.05277500911270609</v>
       </c>
       <c r="X54" t="n">
-        <v>0.2420414329306561</v>
+        <v>0.2430404885381801</v>
       </c>
       <c r="Y54" t="n">
         <v>-0.1753693884983173</v>
@@ -12810,19 +12810,19 @@
         <v>-0.1215064546028651</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.2701140727880045</v>
+        <v>0.2700623265066201</v>
       </c>
       <c r="AG54" t="n">
         <v>-0.04638510705039884</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.07101615371083028</v>
+        <v>0.07092350627553766</v>
       </c>
       <c r="AI54" t="n">
-        <v>-0.005551106339158686</v>
+        <v>-0.005618728216071654</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.3034787989440657</v>
+        <v>0.3034329752589643</v>
       </c>
       <c r="AK54" t="n">
         <v>-0.04683195453229063</v>
@@ -12849,10 +12849,10 @@
         <v>0.4378502976545953</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.1585680535083319</v>
+        <v>0.1589743344808434</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.04084465330314041</v>
+        <v>0.0409565344962624</v>
       </c>
       <c r="AU54" t="n">
         <v>0.2141599495697471</v>
@@ -12885,16 +12885,16 @@
         <v>-0.2102261706086078</v>
       </c>
       <c r="BE54" t="n">
-        <v>0.06664702653492313</v>
+        <v>0.06809408129029343</v>
       </c>
       <c r="BF54" t="n">
         <v>-0.2850386533391314</v>
       </c>
       <c r="BG54" t="n">
-        <v>0.3007978705668971</v>
+        <v>0.3009022845911763</v>
       </c>
       <c r="BH54" t="n">
-        <v>0.2715420613211764</v>
+        <v>0.2715530577212951</v>
       </c>
       <c r="BI54" t="n">
         <v>0.0741478534601924</v>
@@ -12955,7 +12955,7 @@
         <v>-0.002409650421263503</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03373507157582721</v>
+        <v>0.03729979635933157</v>
       </c>
       <c r="E55" t="n">
         <v>0.003302496682064654</v>
@@ -13015,7 +13015,7 @@
         <v>-0.01832954133816573</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06750558590112606</v>
+        <v>0.06799869430713457</v>
       </c>
       <c r="Y55" t="n">
         <v>0.03463126728570436</v>
@@ -13039,19 +13039,19 @@
         <v>-0.07339013408108735</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.08507162618655066</v>
+        <v>0.08504711945610956</v>
       </c>
       <c r="AG55" t="n">
         <v>-0.02659458745921002</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.01799545777239772</v>
+        <v>0.01795156886764163</v>
       </c>
       <c r="AI55" t="n">
-        <v>-0.07060184394060291</v>
+        <v>-0.07063421687103207</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.02230064165996561</v>
+        <v>0.0222788317552017</v>
       </c>
       <c r="AK55" t="n">
         <v>-0.0287599165940014</v>
@@ -13078,10 +13078,10 @@
         <v>0.1863924187137243</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.04642535910489879</v>
+        <v>0.04618868534854747</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.02837234798441563</v>
+        <v>0.02829879324105712</v>
       </c>
       <c r="AU55" t="n">
         <v>0.1435753962622764</v>
@@ -13114,16 +13114,16 @@
         <v>-0.1501966476741927</v>
       </c>
       <c r="BE55" t="n">
-        <v>0.0563344487519712</v>
+        <v>0.05703115811042597</v>
       </c>
       <c r="BF55" t="n">
         <v>-0.1486119508204862</v>
       </c>
       <c r="BG55" t="n">
-        <v>0.1189813297693731</v>
+        <v>0.1190300853102414</v>
       </c>
       <c r="BH55" t="n">
-        <v>0.07913778885039607</v>
+        <v>0.07914294330993074</v>
       </c>
       <c r="BI55" t="n">
         <v>0.05024374901750898</v>
@@ -13184,7 +13184,7 @@
         <v>0.1115928318155772</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2317945418963812</v>
+        <v>-0.2336628824688201</v>
       </c>
       <c r="E56" t="n">
         <v>-0.0252675106799813</v>
@@ -13244,7 +13244,7 @@
         <v>0.01287229169300447</v>
       </c>
       <c r="X56" t="n">
-        <v>-0.1679576480680175</v>
+        <v>-0.1706886645747949</v>
       </c>
       <c r="Y56" t="n">
         <v>0.2360459253837292</v>
@@ -13268,19 +13268,19 @@
         <v>0.1396954330429563</v>
       </c>
       <c r="AF56" t="n">
-        <v>-0.2359993687418628</v>
+        <v>-0.2359101127881806</v>
       </c>
       <c r="AG56" t="n">
         <v>0.02192137339701682</v>
       </c>
       <c r="AH56" t="n">
-        <v>-0.04339228295789763</v>
+        <v>-0.04323248805025265</v>
       </c>
       <c r="AI56" t="n">
-        <v>-0.05779386982203481</v>
+        <v>-0.05767861099878284</v>
       </c>
       <c r="AJ56" t="n">
-        <v>-0.3226706152328925</v>
+        <v>-0.3225918114298104</v>
       </c>
       <c r="AK56" t="n">
         <v>0.07554285049412063</v>
@@ -13307,10 +13307,10 @@
         <v>-0.1757037101065227</v>
       </c>
       <c r="AS56" t="n">
-        <v>-0.1657483731868332</v>
+        <v>-0.1655350027833127</v>
       </c>
       <c r="AT56" t="n">
-        <v>-0.03238502866490414</v>
+        <v>-0.03231037092494451</v>
       </c>
       <c r="AU56" t="n">
         <v>-0.2505098782650481</v>
@@ -13343,16 +13343,16 @@
         <v>1</v>
       </c>
       <c r="BE56" t="n">
-        <v>-0.363048502291182</v>
+        <v>-0.3617951393533681</v>
       </c>
       <c r="BF56" t="n">
         <v>0.4216356331436235</v>
       </c>
       <c r="BG56" t="n">
-        <v>-0.1244364754715605</v>
+        <v>-0.1246076300233078</v>
       </c>
       <c r="BH56" t="n">
-        <v>-0.1176638368238684</v>
+        <v>-0.1176824709767257</v>
       </c>
       <c r="BI56" t="n">
         <v>-0.2384697226631131</v>
@@ -13407,226 +13407,226 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.09266299444242324</v>
+        <v>0.09181581046653731</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2501741609757926</v>
+        <v>-0.2503896516124431</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05454001386167203</v>
+        <v>0.05575235361860192</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05501862308430621</v>
+        <v>0.05527443272127363</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2277081391839784</v>
+        <v>-0.2285828703772249</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09612373953389074</v>
+        <v>0.09632639412264249</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.01924905886651335</v>
+        <v>-0.01919040745789002</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0157725090929805</v>
+        <v>0.01547248437858929</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.05901145414287179</v>
+        <v>-0.0588960568223654</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08537642747506481</v>
+        <v>0.08567243257796053</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1312225215717173</v>
+        <v>0.1317435717227953</v>
       </c>
       <c r="M57" t="n">
-        <v>0.02246775847474997</v>
+        <v>0.02265265797317928</v>
       </c>
       <c r="N57" t="n">
-        <v>0.204203964591832</v>
+        <v>0.2038756871216807</v>
       </c>
       <c r="O57" t="n">
-        <v>0.2282109551046049</v>
+        <v>0.228648566961024</v>
       </c>
       <c r="P57" t="n">
-        <v>0.5312331580319273</v>
+        <v>0.5332733723765966</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.301604248393482</v>
+        <v>-0.3013553970243869</v>
       </c>
       <c r="R57" t="n">
-        <v>0.7859466213423333</v>
+        <v>0.7877174413204382</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6200042866023142</v>
+        <v>0.6209184247925249</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02554257078760461</v>
+        <v>0.02590104671563725</v>
       </c>
       <c r="U57" t="n">
-        <v>-0.03160733710936241</v>
+        <v>-0.03185514334627335</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1824675008572258</v>
+        <v>0.1825525190334606</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1606186050921735</v>
+        <v>0.1607140398027066</v>
       </c>
       <c r="X57" t="n">
-        <v>0.2183764164452667</v>
+        <v>0.2259806466514326</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.4996492018219249</v>
+        <v>-0.5002766802425438</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.1952163762673638</v>
+        <v>0.1960564780903502</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.5749387940740646</v>
+        <v>0.5755425993609981</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.5688493345584678</v>
+        <v>-0.5696870282913824</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.111076960853887</v>
+        <v>0.1116614049787115</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.26127792205722</v>
+        <v>-0.2616118999484219</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.0411894838728149</v>
+        <v>-0.04185395745199822</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.165628976559118</v>
+        <v>0.1664729759988899</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.06627928558233541</v>
+        <v>0.06587601152977063</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.06804517732493356</v>
+        <v>-0.0677539771725529</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.1650676723633447</v>
+        <v>0.1650096789196037</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.3164256305255308</v>
+        <v>0.3175212493572462</v>
       </c>
       <c r="AK57" t="n">
-        <v>-0.09722890896684849</v>
+        <v>-0.09786953063532777</v>
       </c>
       <c r="AL57" t="n">
-        <v>-0.405345181680079</v>
+        <v>-0.4059856526236087</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.2490424952357338</v>
+        <v>0.2513335573478391</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.3021963508534873</v>
+        <v>0.3030145897546754</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.22904888319005</v>
+        <v>0.2301207470529445</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.07703188184814348</v>
+        <v>0.0773218657746771</v>
       </c>
       <c r="AQ57" t="n">
-        <v>-0.04737742695567789</v>
+        <v>-0.0480918466402319</v>
       </c>
       <c r="AR57" t="n">
-        <v>0.241150628088526</v>
+        <v>0.2421709333541806</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.1318146786871057</v>
+        <v>0.1316951740357108</v>
       </c>
       <c r="AT57" t="n">
-        <v>-0.05372275039320584</v>
+        <v>-0.05386252776416037</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.4728138666423723</v>
+        <v>0.4735637467687369</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.2107908403772888</v>
+        <v>0.2114674708259443</v>
       </c>
       <c r="AW57" t="n">
-        <v>-0.04557704974273045</v>
+        <v>-0.04588230747654168</v>
       </c>
       <c r="AX57" t="n">
-        <v>-0.07523671366445298</v>
+        <v>-0.07669488841608421</v>
       </c>
       <c r="AY57" t="n">
-        <v>-0.4390038973324644</v>
+        <v>-0.4395583799981471</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.1294309939745057</v>
+        <v>0.1297904490066846</v>
       </c>
       <c r="BA57" t="n">
-        <v>0.1533746929975673</v>
+        <v>0.1537065074998541</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.06664702653492313</v>
+        <v>0.06809408129029343</v>
       </c>
       <c r="BC57" t="n">
-        <v>0.0563344487519712</v>
+        <v>0.05703115811042597</v>
       </c>
       <c r="BD57" t="n">
-        <v>-0.363048502291182</v>
+        <v>-0.3617951393533681</v>
       </c>
       <c r="BE57" t="n">
         <v>1</v>
       </c>
       <c r="BF57" t="n">
-        <v>-0.5004829091428341</v>
+        <v>-0.5023128638565405</v>
       </c>
       <c r="BG57" t="n">
-        <v>0.4719648247226879</v>
+        <v>0.4764477477196428</v>
       </c>
       <c r="BH57" t="n">
-        <v>0.4562979295850951</v>
+        <v>0.4605665086861337</v>
       </c>
       <c r="BI57" t="n">
-        <v>0.3528085471932224</v>
+        <v>0.3523820217319314</v>
       </c>
       <c r="BJ57" t="n">
-        <v>0.2669247418584434</v>
+        <v>0.2665799136815402</v>
       </c>
       <c r="BK57" t="n">
-        <v>0.2712499107029286</v>
+        <v>0.273957525074882</v>
       </c>
       <c r="BL57" t="n">
-        <v>0.2112602219209038</v>
+        <v>0.2121569566722739</v>
       </c>
       <c r="BM57" t="n">
-        <v>0.2130625793876583</v>
+        <v>0.2133643633804995</v>
       </c>
       <c r="BN57" t="n">
-        <v>-0.2888070061496589</v>
+        <v>-0.2893317810220027</v>
       </c>
       <c r="BO57" t="n">
-        <v>0.0222240190545237</v>
+        <v>0.02234162990954258</v>
       </c>
       <c r="BP57" t="n">
-        <v>-0.0773831425651931</v>
+        <v>-0.07692023955150207</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-0.01997492100012276</v>
+        <v>-0.01986155665832303</v>
       </c>
       <c r="BR57" t="n">
-        <v>-0.007724517370571763</v>
+        <v>-0.007765090837384584</v>
       </c>
       <c r="BS57" t="n">
-        <v>0.0253112471395056</v>
+        <v>0.02546996287270617</v>
       </c>
       <c r="BT57" t="n">
-        <v>-0.003000094498253912</v>
+        <v>-0.003080792741766576</v>
       </c>
       <c r="BU57" t="n">
-        <v>-0.04231027473955511</v>
+        <v>-0.04251193991508501</v>
       </c>
       <c r="BV57" t="n">
-        <v>0.1989535920215677</v>
+        <v>0.2000629965432837</v>
       </c>
       <c r="BW57" t="n">
-        <v>0.5241991409949599</v>
+        <v>0.5262026807896645</v>
       </c>
     </row>
     <row r="58">
@@ -13642,7 +13642,7 @@
         <v>0.1376071078009807</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1822326866089382</v>
+        <v>-0.183604788496593</v>
       </c>
       <c r="E58" t="n">
         <v>-0.02722456365447263</v>
@@ -13702,7 +13702,7 @@
         <v>-0.09992403789336619</v>
       </c>
       <c r="X58" t="n">
-        <v>-0.2456728133353039</v>
+        <v>-0.2494587112670374</v>
       </c>
       <c r="Y58" t="n">
         <v>0.4234617786453707</v>
@@ -13726,19 +13726,19 @@
         <v>0.07134569150703618</v>
       </c>
       <c r="AF58" t="n">
-        <v>-0.2307104891269669</v>
+        <v>-0.2306576254401539</v>
       </c>
       <c r="AG58" t="n">
         <v>-0.02201241165093726</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.0005704079967360264</v>
+        <v>0.0006659288553162076</v>
       </c>
       <c r="AI58" t="n">
-        <v>-0.08470085181789908</v>
+        <v>-0.0846326206484532</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-0.3276426603782426</v>
+        <v>-0.3275959971448226</v>
       </c>
       <c r="AK58" t="n">
         <v>0.08990427025262716</v>
@@ -13765,10 +13765,10 @@
         <v>-0.3336920098789775</v>
       </c>
       <c r="AS58" t="n">
-        <v>-0.1727504583837854</v>
+        <v>-0.1722551274642974</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.01951152363842145</v>
+        <v>0.01967236409339653</v>
       </c>
       <c r="AU58" t="n">
         <v>-0.393728690323707</v>
@@ -13801,16 +13801,16 @@
         <v>0.4216356331436235</v>
       </c>
       <c r="BE58" t="n">
-        <v>-0.5004829091428341</v>
+        <v>-0.5023128638565405</v>
       </c>
       <c r="BF58" t="n">
         <v>1</v>
       </c>
       <c r="BG58" t="n">
-        <v>-0.4649968437503019</v>
+        <v>-0.4651063289496356</v>
       </c>
       <c r="BH58" t="n">
-        <v>-0.4004496545285444</v>
+        <v>-0.4004609284504085</v>
       </c>
       <c r="BI58" t="n">
         <v>-0.1730959250952329</v>
@@ -13865,226 +13865,226 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.03717308934617606</v>
+        <v>-0.03720485320502458</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1242164250367191</v>
+        <v>-0.124346547533393</v>
       </c>
       <c r="D59" t="n">
-        <v>0.273467491648998</v>
+        <v>0.2750108984722667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01418578223197727</v>
+        <v>0.01417909520252262</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2305303377252231</v>
+        <v>-0.2306150719244857</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04127547509170891</v>
+        <v>0.04124270014152425</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.006124541434741063</v>
+        <v>-0.006121315873110226</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.08554338903777695</v>
+        <v>-0.0856083471947171</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.002696329642819327</v>
+        <v>-0.002673307056341741</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1495625740644814</v>
+        <v>0.1496155498695392</v>
       </c>
       <c r="L59" t="n">
-        <v>0.08995256467785355</v>
+        <v>0.08995885552147559</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0393272071281312</v>
+        <v>0.03932833526533926</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01272160603386559</v>
+        <v>0.01276798458911395</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1948485789322708</v>
+        <v>0.1947408752982705</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5785253655874263</v>
+        <v>0.5786193343770927</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.1757321497517245</v>
+        <v>-0.1757770621279188</v>
       </c>
       <c r="R59" t="n">
-        <v>0.5282176011870133</v>
+        <v>0.528398936053164</v>
       </c>
       <c r="S59" t="n">
-        <v>0.4126034710853161</v>
+        <v>0.4125337260706484</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1141336100338915</v>
+        <v>0.1141860587711096</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01899181041396656</v>
+        <v>0.01900455088295931</v>
       </c>
       <c r="V59" t="n">
-        <v>0.137614657380231</v>
+        <v>0.137503866436975</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1303916038644199</v>
+        <v>0.1304175609636217</v>
       </c>
       <c r="X59" t="n">
-        <v>0.3261382720140398</v>
+        <v>0.3284751635827664</v>
       </c>
       <c r="Y59" t="n">
-        <v>-0.4062183741508356</v>
+        <v>-0.4062988674964601</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.1527159258682333</v>
+        <v>0.1526782862828931</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.3658579849199026</v>
+        <v>0.3660700649876953</v>
       </c>
       <c r="AB59" t="n">
-        <v>-0.4689611799410409</v>
+        <v>-0.4689059683483025</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.07587157665908859</v>
+        <v>0.07584206711678217</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.2184962551189403</v>
+        <v>-0.2185667430224032</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.04333691381836016</v>
+        <v>-0.04317328259448736</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.2223040878562733</v>
+        <v>0.2222225254282793</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.03594863207298075</v>
+        <v>0.03591499300065773</v>
       </c>
       <c r="AH59" t="n">
-        <v>-0.0139829403289489</v>
+        <v>-0.01405366277912677</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.1789546387326395</v>
+        <v>0.1789464110600746</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.4114318809042979</v>
+        <v>0.4114353165766636</v>
       </c>
       <c r="AK59" t="n">
-        <v>-0.05676050064647766</v>
+        <v>-0.05675041937639698</v>
       </c>
       <c r="AL59" t="n">
-        <v>-0.3054846343447111</v>
+        <v>-0.3053941620590401</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.274689352637094</v>
+        <v>0.2746656082019065</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.2292425830112776</v>
+        <v>0.2292144464921642</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.4133456296163931</v>
+        <v>0.4134121716927044</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.1715970744143828</v>
+        <v>0.1714585046022808</v>
       </c>
       <c r="AQ59" t="n">
-        <v>-0.07526005772519359</v>
+        <v>-0.07525073175740231</v>
       </c>
       <c r="AR59" t="n">
-        <v>0.4646622077007561</v>
+        <v>0.4645936136076438</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.1432761099512736</v>
+        <v>0.1432095360118787</v>
       </c>
       <c r="AT59" t="n">
-        <v>-0.03028565543516439</v>
+        <v>-0.03031677966482279</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.4663782212998721</v>
+        <v>0.4662996844184119</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.2208411912512615</v>
+        <v>0.2209257816362272</v>
       </c>
       <c r="AW59" t="n">
-        <v>0.08883858675723671</v>
+        <v>0.08882095757347638</v>
       </c>
       <c r="AX59" t="n">
-        <v>-0.03265590069993599</v>
+        <v>-0.03263402157938562</v>
       </c>
       <c r="AY59" t="n">
-        <v>-0.3656591013541443</v>
+        <v>-0.3655881622131483</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.3273114094464972</v>
+        <v>0.3273458042954155</v>
       </c>
       <c r="BA59" t="n">
-        <v>0.06571146448464313</v>
+        <v>0.06568432381948607</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.3007978705668971</v>
+        <v>0.3009022845911763</v>
       </c>
       <c r="BC59" t="n">
-        <v>0.1189813297693731</v>
+        <v>0.1190300853102414</v>
       </c>
       <c r="BD59" t="n">
-        <v>-0.1244364754715605</v>
+        <v>-0.1246076300233078</v>
       </c>
       <c r="BE59" t="n">
-        <v>0.4719648247226879</v>
+        <v>0.4764477477196428</v>
       </c>
       <c r="BF59" t="n">
-        <v>-0.4649968437503019</v>
+        <v>-0.4651063289496356</v>
       </c>
       <c r="BG59" t="n">
         <v>1</v>
       </c>
       <c r="BH59" t="n">
-        <v>0.8881252060017801</v>
+        <v>0.8881358301072548</v>
       </c>
       <c r="BI59" t="n">
-        <v>0.1091394682898016</v>
+        <v>0.1091165110613901</v>
       </c>
       <c r="BJ59" t="n">
-        <v>0.07460636952103797</v>
+        <v>0.07458760956825977</v>
       </c>
       <c r="BK59" t="n">
-        <v>0.2973057394874425</v>
+        <v>0.2972773620537574</v>
       </c>
       <c r="BL59" t="n">
-        <v>0.2315326034615338</v>
+        <v>0.2314665502934059</v>
       </c>
       <c r="BM59" t="n">
-        <v>0.1914030497730536</v>
+        <v>0.1914818776601977</v>
       </c>
       <c r="BN59" t="n">
-        <v>-0.1280464777763329</v>
+        <v>-0.1283649312294015</v>
       </c>
       <c r="BO59" t="n">
-        <v>0.02645034889426904</v>
+        <v>0.02646206214341919</v>
       </c>
       <c r="BP59" t="n">
-        <v>0.02319274076175953</v>
+        <v>0.0232233868815948</v>
       </c>
       <c r="BQ59" t="n">
-        <v>0.02236447994539389</v>
+        <v>0.02237131845262349</v>
       </c>
       <c r="BR59" t="n">
-        <v>-0.01505062209488366</v>
+        <v>-0.01504120517339253</v>
       </c>
       <c r="BS59" t="n">
-        <v>0.05309674464077448</v>
+        <v>0.05322579087871961</v>
       </c>
       <c r="BT59" t="n">
-        <v>-0.01919203229059469</v>
+        <v>-0.0191274149654564</v>
       </c>
       <c r="BU59" t="n">
-        <v>-0.05223601965284799</v>
+        <v>-0.05227304216912944</v>
       </c>
       <c r="BV59" t="n">
-        <v>0.1896525631719903</v>
+        <v>0.1898344105279316</v>
       </c>
       <c r="BW59" t="n">
-        <v>0.6541669716241364</v>
+        <v>0.6542186503519613</v>
       </c>
     </row>
     <row r="60">
@@ -14094,226 +14094,226 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.09373531780764821</v>
+        <v>-0.09373878545402464</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1476153022457303</v>
+        <v>-0.1476294377114805</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3243707753263144</v>
+        <v>0.3254788487599038</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001592643613685953</v>
+        <v>0.001591878207614578</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2038798383370219</v>
+        <v>-0.203888782137734</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03799248935509023</v>
+        <v>0.03798881497340826</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.007642190410829757</v>
+        <v>-0.007641826527231109</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.07461223476434137</v>
+        <v>-0.07461924143019834</v>
       </c>
       <c r="J60" t="n">
-        <v>0.007182778445249866</v>
+        <v>0.00718532183500663</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1760448588310645</v>
+        <v>0.1760504655816906</v>
       </c>
       <c r="L60" t="n">
-        <v>0.06480427707992301</v>
+        <v>0.06480481249471019</v>
       </c>
       <c r="M60" t="n">
-        <v>0.05933961095201915</v>
+        <v>0.05933968356423702</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.0451230727305937</v>
+        <v>-0.0451180207595994</v>
       </c>
       <c r="O60" t="n">
-        <v>0.1400329428142563</v>
+        <v>0.1400207498270087</v>
       </c>
       <c r="P60" t="n">
-        <v>0.5384669884150796</v>
+        <v>0.5384763876407396</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.146983425530244</v>
+        <v>-0.1469880728862072</v>
       </c>
       <c r="R60" t="n">
-        <v>0.469790670737424</v>
+        <v>0.4698097546284402</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3617421318676511</v>
+        <v>0.3617337721186953</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1308483513422653</v>
+        <v>0.1308539510645316</v>
       </c>
       <c r="U60" t="n">
-        <v>0.02621995694464564</v>
+        <v>0.02622133282057173</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1090386558759142</v>
+        <v>0.109026228589194</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1014278736287954</v>
+        <v>0.1014305069256038</v>
       </c>
       <c r="X60" t="n">
-        <v>0.3341848092314667</v>
+        <v>0.3359705233013461</v>
       </c>
       <c r="Y60" t="n">
-        <v>-0.3994853837163623</v>
+        <v>-0.3994935923332023</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.1125307146376699</v>
+        <v>0.112526307353533</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.3182542024610261</v>
+        <v>0.3182769340866339</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.4118229863741976</v>
+        <v>-0.4118161329596376</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.07193884265003328</v>
+        <v>0.07193547224913992</v>
       </c>
       <c r="AD60" t="n">
-        <v>-0.2261869344804723</v>
+        <v>-0.2261943484870394</v>
       </c>
       <c r="AE60" t="n">
-        <v>-0.06429857015926391</v>
+        <v>-0.06428050492375507</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.2721759940397884</v>
+        <v>0.2721226481255093</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.007596196286278726</v>
+        <v>0.007592421488961939</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.004531547113419561</v>
+        <v>0.004444019374380042</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.1652343616139579</v>
+        <v>0.1651766688411864</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.4564699751385528</v>
+        <v>0.4564309513624167</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.07773651511203614</v>
+        <v>-0.07773532691644364</v>
       </c>
       <c r="AL60" t="n">
-        <v>-0.2631375320214664</v>
+        <v>-0.2631270662618395</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.2698158755256684</v>
+        <v>0.2698128228495798</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.2133061978131373</v>
+        <v>0.2133027279789629</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.4623697772810926</v>
+        <v>0.4623764698764955</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.1195973191947879</v>
+        <v>0.1195817678725053</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-0.06140182667993989</v>
+        <v>-0.06140067302181765</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.4586149173458148</v>
+        <v>0.4586066261100251</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.1625222034521991</v>
+        <v>0.1625289714373475</v>
       </c>
       <c r="AT60" t="n">
-        <v>-0.01717492823087836</v>
+        <v>-0.01718436720757606</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.3950012262272005</v>
+        <v>0.3949918021085367</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.1649323010110393</v>
+        <v>0.1649412283009052</v>
       </c>
       <c r="AW60" t="n">
-        <v>0.07404810281464612</v>
+        <v>0.07404601326709359</v>
       </c>
       <c r="AX60" t="n">
-        <v>-0.05353297320222297</v>
+        <v>-0.05353052492053582</v>
       </c>
       <c r="AY60" t="n">
-        <v>-0.3523650958573773</v>
+        <v>-0.3523567000220638</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.2972107914348124</v>
+        <v>0.2972140394951785</v>
       </c>
       <c r="BA60" t="n">
-        <v>0.05394347115862612</v>
+        <v>0.0539403733053759</v>
       </c>
       <c r="BB60" t="n">
-        <v>0.2715420613211764</v>
+        <v>0.2715530577212951</v>
       </c>
       <c r="BC60" t="n">
-        <v>0.07913778885039607</v>
+        <v>0.07914294330993074</v>
       </c>
       <c r="BD60" t="n">
-        <v>-0.1176638368238684</v>
+        <v>-0.1176824709767257</v>
       </c>
       <c r="BE60" t="n">
-        <v>0.4562979295850951</v>
+        <v>0.4605665086861337</v>
       </c>
       <c r="BF60" t="n">
-        <v>-0.4004496545285444</v>
+        <v>-0.4004609284504085</v>
       </c>
       <c r="BG60" t="n">
-        <v>0.8881252060017801</v>
+        <v>0.8881358301072548</v>
       </c>
       <c r="BH60" t="n">
         <v>1</v>
       </c>
       <c r="BI60" t="n">
-        <v>0.1140029906508352</v>
+        <v>0.1140002932677146</v>
       </c>
       <c r="BJ60" t="n">
-        <v>0.08538027795185059</v>
+        <v>0.08537810065998062</v>
       </c>
       <c r="BK60" t="n">
-        <v>0.2967225111586478</v>
+        <v>0.2967189150038029</v>
       </c>
       <c r="BL60" t="n">
-        <v>0.2289122694987659</v>
+        <v>0.2289046305682051</v>
       </c>
       <c r="BM60" t="n">
-        <v>0.2188659202062758</v>
+        <v>0.2188743060067847</v>
       </c>
       <c r="BN60" t="n">
-        <v>-0.1016294698073457</v>
+        <v>-0.1016642978578181</v>
       </c>
       <c r="BO60" t="n">
-        <v>0.03344928379726143</v>
+        <v>0.03345053463750509</v>
       </c>
       <c r="BP60" t="n">
-        <v>0.03731884549706591</v>
+        <v>0.03732218902719486</v>
       </c>
       <c r="BQ60" t="n">
-        <v>0.04777344495217961</v>
+        <v>0.04777417594579056</v>
       </c>
       <c r="BR60" t="n">
-        <v>0.0113775604302115</v>
+        <v>0.01137863525043331</v>
       </c>
       <c r="BS60" t="n">
-        <v>0.04430971521802395</v>
+        <v>0.04432382764980889</v>
       </c>
       <c r="BT60" t="n">
-        <v>-0.0101821852042958</v>
+        <v>-0.01017503849886551</v>
       </c>
       <c r="BU60" t="n">
-        <v>-0.07175056520959279</v>
+        <v>-0.07175456724214917</v>
       </c>
       <c r="BV60" t="n">
-        <v>0.1726071988676516</v>
+        <v>0.1726269004025852</v>
       </c>
       <c r="BW60" t="n">
-        <v>0.6344490689970946</v>
+        <v>0.6344537050260678</v>
       </c>
     </row>
     <row r="61">
@@ -14329,7 +14329,7 @@
         <v>-0.09422702925277418</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05978381901506685</v>
+        <v>0.06106523402892005</v>
       </c>
       <c r="E61" t="n">
         <v>0.01024891491680225</v>
@@ -14389,7 +14389,7 @@
         <v>0.002920034678916894</v>
       </c>
       <c r="X61" t="n">
-        <v>0.1139843598655659</v>
+        <v>0.1152204927946795</v>
       </c>
       <c r="Y61" t="n">
         <v>-0.08227468592021306</v>
@@ -14413,19 +14413,19 @@
         <v>-0.1382481857642961</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.1365156327111479</v>
+        <v>0.1365294068657464</v>
       </c>
       <c r="AG61" t="n">
         <v>-0.05292693310276576</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.05068003677904283</v>
+        <v>0.05070465649794369</v>
       </c>
       <c r="AI61" t="n">
-        <v>-0.0270651751660157</v>
+        <v>-0.02704818229113504</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.1341733448590454</v>
+        <v>0.1341853878578743</v>
       </c>
       <c r="AK61" t="n">
         <v>-0.07246948857006072</v>
@@ -14452,10 +14452,10 @@
         <v>0.06656990035083682</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.1067427039361243</v>
+        <v>0.106900643381797</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.03187571568747998</v>
+        <v>0.03191646523032815</v>
       </c>
       <c r="AU61" t="n">
         <v>0.1366537973829185</v>
@@ -14488,16 +14488,16 @@
         <v>-0.2384697226631131</v>
       </c>
       <c r="BE61" t="n">
-        <v>0.3528085471932224</v>
+        <v>0.3523820217319314</v>
       </c>
       <c r="BF61" t="n">
         <v>-0.1730959250952329</v>
       </c>
       <c r="BG61" t="n">
-        <v>0.1091394682898016</v>
+        <v>0.1091165110613901</v>
       </c>
       <c r="BH61" t="n">
-        <v>0.1140029906508352</v>
+        <v>0.1140002932677146</v>
       </c>
       <c r="BI61" t="n">
         <v>1</v>
@@ -14558,7 +14558,7 @@
         <v>-0.05830698438539169</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04397816782622109</v>
+        <v>0.04437402923484066</v>
       </c>
       <c r="E62" t="n">
         <v>0.0193306249078093</v>
@@ -14618,7 +14618,7 @@
         <v>0.01476294171745971</v>
       </c>
       <c r="X62" t="n">
-        <v>0.07128503642414842</v>
+        <v>0.0722557399610721</v>
       </c>
       <c r="Y62" t="n">
         <v>-0.08312020153929779</v>
@@ -14642,19 +14642,19 @@
         <v>-0.1009417934833975</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.09889130428490311</v>
+        <v>0.09890237147722016</v>
       </c>
       <c r="AG62" t="n">
         <v>-0.02520565662708681</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.02044731153759431</v>
+        <v>0.02046684167222956</v>
       </c>
       <c r="AI62" t="n">
-        <v>-0.002887878681284583</v>
+        <v>-0.002874042601965725</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0.1080670397397589</v>
+        <v>0.1080767446428537</v>
       </c>
       <c r="AK62" t="n">
         <v>-0.07611875134876103</v>
@@ -14681,10 +14681,10 @@
         <v>0.0634168614984385</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.07850485200787521</v>
+        <v>0.07863041196032629</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.03329354168664207</v>
+        <v>0.03332654577979621</v>
       </c>
       <c r="AU62" t="n">
         <v>0.08720018224580477</v>
@@ -14717,16 +14717,16 @@
         <v>-0.2245225831685843</v>
       </c>
       <c r="BE62" t="n">
-        <v>0.2669247418584434</v>
+        <v>0.2665799136815402</v>
       </c>
       <c r="BF62" t="n">
         <v>-0.1318522274655654</v>
       </c>
       <c r="BG62" t="n">
-        <v>0.07460636952103797</v>
+        <v>0.07458760956825977</v>
       </c>
       <c r="BH62" t="n">
-        <v>0.08538027795185059</v>
+        <v>0.08537810065998062</v>
       </c>
       <c r="BI62" t="n">
         <v>0.4274766949337418</v>
@@ -14787,7 +14787,7 @@
         <v>-0.04387504975085198</v>
       </c>
       <c r="D63" t="n">
-        <v>0.054499505408127</v>
+        <v>0.05597646126136555</v>
       </c>
       <c r="E63" t="n">
         <v>0.1091528645510794</v>
@@ -14847,7 +14847,7 @@
         <v>-0.0421121641570221</v>
       </c>
       <c r="X63" t="n">
-        <v>0.1627896388385631</v>
+        <v>0.1636907247859005</v>
       </c>
       <c r="Y63" t="n">
         <v>-0.08818370791068256</v>
@@ -14871,19 +14871,19 @@
         <v>-0.2109635169759668</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.2146588562789471</v>
+        <v>0.2146777022437044</v>
       </c>
       <c r="AG63" t="n">
         <v>-0.0668703350882444</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.0740079757851702</v>
+        <v>0.07404158466505838</v>
       </c>
       <c r="AI63" t="n">
-        <v>-0.01205281075572399</v>
+        <v>-0.01202947929662232</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.24038520143636</v>
+        <v>0.2404017089454535</v>
       </c>
       <c r="AK63" t="n">
         <v>-0.1125619684265559</v>
@@ -14910,10 +14910,10 @@
         <v>0.1268921237815298</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.133040840133511</v>
+        <v>0.133253138828858</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.04554827890312639</v>
+        <v>0.04560382806163139</v>
       </c>
       <c r="AU63" t="n">
         <v>0.1512223221515459</v>
@@ -14946,16 +14946,16 @@
         <v>-0.2036735702270769</v>
       </c>
       <c r="BE63" t="n">
-        <v>0.2712499107029286</v>
+        <v>0.273957525074882</v>
       </c>
       <c r="BF63" t="n">
         <v>-0.2601669535366268</v>
       </c>
       <c r="BG63" t="n">
-        <v>0.2973057394874425</v>
+        <v>0.2972773620537574</v>
       </c>
       <c r="BH63" t="n">
-        <v>0.2967225111586478</v>
+        <v>0.2967189150038029</v>
       </c>
       <c r="BI63" t="n">
         <v>0.2165714582054507</v>
@@ -15016,7 +15016,7 @@
         <v>0.01079744709397775</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09220613020887883</v>
+        <v>0.09416169957114978</v>
       </c>
       <c r="E64" t="n">
         <v>0.009081096843507103</v>
@@ -15076,7 +15076,7 @@
         <v>0.05365301283270947</v>
       </c>
       <c r="X64" t="n">
-        <v>0.143098918133817</v>
+        <v>0.1420438124468228</v>
       </c>
       <c r="Y64" t="n">
         <v>-0.1645045909576023</v>
@@ -15100,19 +15100,19 @@
         <v>-0.1265072970201835</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.216546099830266</v>
+        <v>0.2165043963958109</v>
       </c>
       <c r="AG64" t="n">
         <v>-0.07805548855707511</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.08855671410601852</v>
+        <v>0.08848252971270444</v>
       </c>
       <c r="AI64" t="n">
-        <v>-0.04217576091273371</v>
+        <v>-0.04223053769051414</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0.2167363398460726</v>
+        <v>0.2166993621149271</v>
       </c>
       <c r="AK64" t="n">
         <v>-0.06002704233952689</v>
@@ -15139,10 +15139,10 @@
         <v>0.2317443766221896</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.1803284219844245</v>
+        <v>0.1799467093021348</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.05263770004476029</v>
+        <v>0.05251198979795314</v>
       </c>
       <c r="AU64" t="n">
         <v>0.1658748073949036</v>
@@ -15175,16 +15175,16 @@
         <v>-0.1755878489533175</v>
       </c>
       <c r="BE64" t="n">
-        <v>0.2112602219209038</v>
+        <v>0.2121569566722739</v>
       </c>
       <c r="BF64" t="n">
         <v>-0.2468225508173038</v>
       </c>
       <c r="BG64" t="n">
-        <v>0.2315326034615338</v>
+        <v>0.2314665502934059</v>
       </c>
       <c r="BH64" t="n">
-        <v>0.2289122694987659</v>
+        <v>0.2289046305682051</v>
       </c>
       <c r="BI64" t="n">
         <v>0.06071241819226691</v>
@@ -15245,7 +15245,7 @@
         <v>-0.1837681075526102</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1416242034585762</v>
+        <v>0.1420071908853893</v>
       </c>
       <c r="E65" t="n">
         <v>0.006753602904773237</v>
@@ -15305,7 +15305,7 @@
         <v>0.06655581960584041</v>
       </c>
       <c r="X65" t="n">
-        <v>0.136316319368301</v>
+        <v>0.1388130786261182</v>
       </c>
       <c r="Y65" t="n">
         <v>-0.248845532532127</v>
@@ -15329,19 +15329,19 @@
         <v>0.01845251905528703</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.1102278638447814</v>
+        <v>0.1101881506006706</v>
       </c>
       <c r="AG65" t="n">
         <v>0.0312403754384879</v>
       </c>
       <c r="AH65" t="n">
-        <v>-0.004298920325091314</v>
+        <v>-0.004370405297315233</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.1172634315348016</v>
+        <v>0.1172128165036916</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.2346648969245096</v>
+        <v>0.234629985589358</v>
       </c>
       <c r="AK65" t="n">
         <v>0.008508562059701866</v>
@@ -15368,10 +15368,10 @@
         <v>0.3386438711091622</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.07320204419234452</v>
+        <v>0.07440962688904081</v>
       </c>
       <c r="AT65" t="n">
-        <v>-0.03302706118659595</v>
+        <v>-0.03267058748437271</v>
       </c>
       <c r="AU65" t="n">
         <v>0.25720839150276</v>
@@ -15404,16 +15404,16 @@
         <v>-0.1420123627780748</v>
       </c>
       <c r="BE65" t="n">
-        <v>0.2130625793876583</v>
+        <v>0.2133643633804995</v>
       </c>
       <c r="BF65" t="n">
         <v>-0.2048624400589928</v>
       </c>
       <c r="BG65" t="n">
-        <v>0.1914030497730536</v>
+        <v>0.1914818776601977</v>
       </c>
       <c r="BH65" t="n">
-        <v>0.2188659202062758</v>
+        <v>0.2188743060067847</v>
       </c>
       <c r="BI65" t="n">
         <v>0.05692525017281977</v>
@@ -15474,7 +15474,7 @@
         <v>0.09573630387526434</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01786973840975335</v>
+        <v>0.01726737587171626</v>
       </c>
       <c r="E66" t="n">
         <v>-0.03984535936368871</v>
@@ -15534,7 +15534,7 @@
         <v>-0.0285240082462477</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.1058728076303876</v>
+        <v>-0.1063729386416935</v>
       </c>
       <c r="Y66" t="n">
         <v>0.1135600979855308</v>
@@ -15558,19 +15558,19 @@
         <v>0.09097201051568027</v>
       </c>
       <c r="AF66" t="n">
-        <v>-0.09831276004509844</v>
+        <v>-0.09833378194439832</v>
       </c>
       <c r="AG66" t="n">
         <v>-0.02952670291667098</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.03337776393184973</v>
+        <v>0.03334129227132286</v>
       </c>
       <c r="AI66" t="n">
-        <v>0.002983936536457143</v>
+        <v>0.002957295868723094</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-0.0858960007323953</v>
+        <v>-0.08591445245120763</v>
       </c>
       <c r="AK66" t="n">
         <v>0.05487859101411165</v>
@@ -15597,10 +15597,10 @@
         <v>0.01142488622560238</v>
       </c>
       <c r="AS66" t="n">
-        <v>-0.06680499379125239</v>
+        <v>-0.06702732373684027</v>
       </c>
       <c r="AT66" t="n">
-        <v>-0.00969438037922069</v>
+        <v>-0.009756698803837525</v>
       </c>
       <c r="AU66" t="n">
         <v>-0.1186203615360088</v>
@@ -15633,16 +15633,16 @@
         <v>0.1500693145501109</v>
       </c>
       <c r="BE66" t="n">
-        <v>-0.2888070061496589</v>
+        <v>-0.2893317810220027</v>
       </c>
       <c r="BF66" t="n">
         <v>0.1849988354090183</v>
       </c>
       <c r="BG66" t="n">
-        <v>-0.1280464777763329</v>
+        <v>-0.1283649312294015</v>
       </c>
       <c r="BH66" t="n">
-        <v>-0.1016294698073457</v>
+        <v>-0.1016642978578181</v>
       </c>
       <c r="BI66" t="n">
         <v>-0.1457941727873787</v>
@@ -15703,7 +15703,7 @@
         <v>0.002265922777435936</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02725009563268009</v>
+        <v>0.02758493273591829</v>
       </c>
       <c r="E67" t="n">
         <v>0.006717736039384785</v>
@@ -15763,7 +15763,7 @@
         <v>-0.01362342400983125</v>
       </c>
       <c r="X67" t="n">
-        <v>0.01992474099908876</v>
+        <v>0.01946040211905014</v>
       </c>
       <c r="Y67" t="n">
         <v>-0.04842067594480506</v>
@@ -15787,19 +15787,19 @@
         <v>-0.04907771177353012</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.05619056450885761</v>
+        <v>0.05618476050618928</v>
       </c>
       <c r="AG67" t="n">
         <v>-0.002129685398906201</v>
       </c>
       <c r="AH67" t="n">
-        <v>-0.02368657253832783</v>
+        <v>-0.02369758183387663</v>
       </c>
       <c r="AI67" t="n">
-        <v>-0.005000268365624746</v>
+        <v>-0.005007984392682548</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.04379176900895074</v>
+        <v>0.04378657938139093</v>
       </c>
       <c r="AK67" t="n">
         <v>-0.01079137805017604</v>
@@ -15826,10 +15826,10 @@
         <v>0.01088090097001516</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.02903311766609909</v>
+        <v>0.02898012354741633</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.02679780244888289</v>
+        <v>0.02678049990675651</v>
       </c>
       <c r="AU67" t="n">
         <v>0.01776227792162962</v>
@@ -15862,16 +15862,16 @@
         <v>-0.034845418976827</v>
       </c>
       <c r="BE67" t="n">
-        <v>0.0222240190545237</v>
+        <v>0.02234162990954258</v>
       </c>
       <c r="BF67" t="n">
         <v>-0.02248860418206578</v>
       </c>
       <c r="BG67" t="n">
-        <v>0.02645034889426904</v>
+        <v>0.02646206214341919</v>
       </c>
       <c r="BH67" t="n">
-        <v>0.03344928379726143</v>
+        <v>0.03345053463750509</v>
       </c>
       <c r="BI67" t="n">
         <v>-0.006865207140651095</v>
@@ -15932,7 +15932,7 @@
         <v>0.01982977879560266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06280296603761876</v>
+        <v>0.06290519427220315</v>
       </c>
       <c r="E68" t="n">
         <v>-0.007776530723753451</v>
@@ -15992,7 +15992,7 @@
         <v>-0.04160260701671682</v>
       </c>
       <c r="X68" t="n">
-        <v>0.05258357421744859</v>
+        <v>0.0513301784996003</v>
       </c>
       <c r="Y68" t="n">
         <v>0.03287764530141236</v>
@@ -16016,19 +16016,19 @@
         <v>-0.04838477600935985</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.0880284907710602</v>
+        <v>0.08801265384324052</v>
       </c>
       <c r="AG68" t="n">
         <v>-0.03056568418761109</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.05621847593559941</v>
+        <v>0.05619061711143759</v>
       </c>
       <c r="AI68" t="n">
-        <v>-0.05572868296504858</v>
+        <v>-0.0557498048686158</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.05610581410898641</v>
+        <v>0.05609170919365215</v>
       </c>
       <c r="AK68" t="n">
         <v>-0.008505168909868667</v>
@@ -16055,10 +16055,10 @@
         <v>0.06304172721794883</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.04543237295346995</v>
+        <v>0.04528197832422511</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.04737150359322086</v>
+        <v>0.04732430958789959</v>
       </c>
       <c r="AU68" t="n">
         <v>-0.02843589838754238</v>
@@ -16091,16 +16091,16 @@
         <v>-0.06053613331654454</v>
       </c>
       <c r="BE68" t="n">
-        <v>-0.0773831425651931</v>
+        <v>-0.07692023955150207</v>
       </c>
       <c r="BF68" t="n">
         <v>-0.03331616137096959</v>
       </c>
       <c r="BG68" t="n">
-        <v>0.02319274076175953</v>
+        <v>0.0232233868815948</v>
       </c>
       <c r="BH68" t="n">
-        <v>0.03731884549706591</v>
+        <v>0.03732218902719486</v>
       </c>
       <c r="BI68" t="n">
         <v>-0.002022786512497141</v>
@@ -16161,7 +16161,7 @@
         <v>0.0022916791304345</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1455783910962285</v>
+        <v>0.1454403033156571</v>
       </c>
       <c r="E69" t="n">
         <v>0.003841229341065501</v>
@@ -16221,7 +16221,7 @@
         <v>0.004695956954624931</v>
       </c>
       <c r="X69" t="n">
-        <v>0.006449990660818247</v>
+        <v>0.006178364144578623</v>
       </c>
       <c r="Y69" t="n">
         <v>-0.01739928011505375</v>
@@ -16245,19 +16245,19 @@
         <v>-0.02852753365924638</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.06690136639133358</v>
+        <v>0.06689815047120241</v>
       </c>
       <c r="AG69" t="n">
         <v>-0.05148203293940955</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.04915255567705924</v>
+        <v>0.04914721351231181</v>
       </c>
       <c r="AI69" t="n">
-        <v>-0.02934307234366733</v>
+        <v>-0.02934768334535152</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.05873935651686762</v>
+        <v>0.05873645010270135</v>
       </c>
       <c r="AK69" t="n">
         <v>-0.006170554745502716</v>
@@ -16284,10 +16284,10 @@
         <v>0.1146900938608407</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.0368149847767978</v>
+        <v>0.03678930245904862</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.07187536709072372</v>
+        <v>0.07186670423200346</v>
       </c>
       <c r="AU69" t="n">
         <v>0.01805189100797597</v>
@@ -16320,16 +16320,16 @@
         <v>-0.03253519730559894</v>
       </c>
       <c r="BE69" t="n">
-        <v>-0.01997492100012276</v>
+        <v>-0.01986155665832303</v>
       </c>
       <c r="BF69" t="n">
         <v>-0.01696334569867785</v>
       </c>
       <c r="BG69" t="n">
-        <v>0.02236447994539389</v>
+        <v>0.02237131845262349</v>
       </c>
       <c r="BH69" t="n">
-        <v>0.04777344495217961</v>
+        <v>0.04777417594579056</v>
       </c>
       <c r="BI69" t="n">
         <v>-0.01676737810276378</v>
@@ -16390,7 +16390,7 @@
         <v>0.01132158275991285</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03742148796321629</v>
+        <v>0.03797355748458782</v>
       </c>
       <c r="E70" t="n">
         <v>-0.006577670832187145</v>
@@ -16450,7 +16450,7 @@
         <v>-0.02995148577942646</v>
       </c>
       <c r="X70" t="n">
-        <v>0.05313323663432296</v>
+        <v>0.052775005268664</v>
       </c>
       <c r="Y70" t="n">
         <v>-0.02013220031843164</v>
@@ -16474,19 +16474,19 @@
         <v>-0.04461850880825122</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.1000996202057502</v>
+        <v>0.100094739920731</v>
       </c>
       <c r="AG70" t="n">
         <v>0.004742450659814302</v>
       </c>
       <c r="AH70" t="n">
-        <v>-0.005320097223010554</v>
+        <v>-0.005329411303015716</v>
       </c>
       <c r="AI70" t="n">
-        <v>-0.009844333919691516</v>
+        <v>-0.009851065321381629</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0.09177500955816766</v>
+        <v>0.09177060745594458</v>
       </c>
       <c r="AK70" t="n">
         <v>0.0009061603179791447</v>
@@ -16513,10 +16513,10 @@
         <v>0.07463495993117805</v>
       </c>
       <c r="AS70" t="n">
-        <v>-0.003531253343129251</v>
+        <v>-0.003583761162881049</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.03688686618349338</v>
+        <v>0.03687216151022748</v>
       </c>
       <c r="AU70" t="n">
         <v>-0.008225125557142091</v>
@@ -16549,16 +16549,16 @@
         <v>-0.02567054369372852</v>
       </c>
       <c r="BE70" t="n">
-        <v>-0.007724517370571763</v>
+        <v>-0.007765090837384584</v>
       </c>
       <c r="BF70" t="n">
         <v>-0.01106341668565313</v>
       </c>
       <c r="BG70" t="n">
-        <v>-0.01505062209488366</v>
+        <v>-0.01504120517339253</v>
       </c>
       <c r="BH70" t="n">
-        <v>0.0113775604302115</v>
+        <v>0.01137863525043331</v>
       </c>
       <c r="BI70" t="n">
         <v>0.01127957838836621</v>
@@ -16619,7 +16619,7 @@
         <v>-0.02516111741458895</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01329656762079424</v>
+        <v>0.01300288946104599</v>
       </c>
       <c r="E71" t="n">
         <v>0.01718532598497139</v>
@@ -16679,7 +16679,7 @@
         <v>-0.0237258982764527</v>
       </c>
       <c r="X71" t="n">
-        <v>0.009892108494404276</v>
+        <v>0.01196661716007967</v>
       </c>
       <c r="Y71" t="n">
         <v>-0.02165922330387419</v>
@@ -16703,19 +16703,19 @@
         <v>0.01646428393959057</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.005848595435761023</v>
+        <v>0.005801556398219816</v>
       </c>
       <c r="AG71" t="n">
         <v>0.006043367361482393</v>
       </c>
       <c r="AH71" t="n">
-        <v>-0.007933876900416118</v>
+        <v>-0.008017933819806276</v>
       </c>
       <c r="AI71" t="n">
-        <v>0.02188466604076814</v>
+        <v>0.02182430958021553</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0.02554360624766655</v>
+        <v>0.02550212324902689</v>
       </c>
       <c r="AK71" t="n">
         <v>-0.003798424512114662</v>
@@ -16742,10 +16742,10 @@
         <v>0.05285308322691468</v>
       </c>
       <c r="AS71" t="n">
-        <v>-0.0008813139034555432</v>
+        <v>-0.001034060329259491</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.02528249617430684</v>
+        <v>0.02523729100838402</v>
       </c>
       <c r="AU71" t="n">
         <v>0.04750104243825228</v>
@@ -16778,16 +16778,16 @@
         <v>0.01446845497738064</v>
       </c>
       <c r="BE71" t="n">
-        <v>0.0253112471395056</v>
+        <v>0.02546996287270617</v>
       </c>
       <c r="BF71" t="n">
         <v>0.00944233366826862</v>
       </c>
       <c r="BG71" t="n">
-        <v>0.05309674464077448</v>
+        <v>0.05322579087871961</v>
       </c>
       <c r="BH71" t="n">
-        <v>0.04430971521802395</v>
+        <v>0.04432382764980889</v>
       </c>
       <c r="BI71" t="n">
         <v>0.0161589964236276</v>
@@ -16848,7 +16848,7 @@
         <v>-0.02384549831660005</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.007672411071931949</v>
+        <v>-0.007467271529903459</v>
       </c>
       <c r="E72" t="n">
         <v>-0.01829022560525161</v>
@@ -16908,7 +16908,7 @@
         <v>-0.02335195486820152</v>
       </c>
       <c r="X72" t="n">
-        <v>-0.01364073177839296</v>
+        <v>-0.01422131493572543</v>
       </c>
       <c r="Y72" t="n">
         <v>-0.02818496841339277</v>
@@ -16932,19 +16932,19 @@
         <v>-0.03271597796349503</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.02099415373029726</v>
+        <v>0.02100319897340513</v>
       </c>
       <c r="AG72" t="n">
         <v>-0.02285914531220032</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.009296771445449959</v>
+        <v>0.009312936381613875</v>
       </c>
       <c r="AI72" t="n">
-        <v>-0.0336141293329763</v>
+        <v>-0.03360282827887878</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-0.00934135610993745</v>
+        <v>-0.009333445003687449</v>
       </c>
       <c r="AK72" t="n">
         <v>0.008777380039125359</v>
@@ -16971,10 +16971,10 @@
         <v>-0.01796392657771764</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.04514552282601095</v>
+        <v>0.04524556420339827</v>
       </c>
       <c r="AT72" t="n">
-        <v>-0.01961777754413885</v>
+        <v>-0.01959129231217748</v>
       </c>
       <c r="AU72" t="n">
         <v>0.0001213435667189362</v>
@@ -17007,16 +17007,16 @@
         <v>0.01393179678706407</v>
       </c>
       <c r="BE72" t="n">
-        <v>-0.003000094498253912</v>
+        <v>-0.003080792741766576</v>
       </c>
       <c r="BF72" t="n">
         <v>0.009196148359947687</v>
       </c>
       <c r="BG72" t="n">
-        <v>-0.01919203229059469</v>
+        <v>-0.0191274149654564</v>
       </c>
       <c r="BH72" t="n">
-        <v>-0.0101821852042958</v>
+        <v>-0.01017503849886551</v>
       </c>
       <c r="BI72" t="n">
         <v>0.03737448021236923</v>
@@ -17077,7 +17077,7 @@
         <v>0.07007208679149345</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.04112552134497711</v>
+        <v>-0.0398945993185815</v>
       </c>
       <c r="E73" t="n">
         <v>0.01280911380856639</v>
@@ -17137,7 +17137,7 @@
         <v>0.00778336480373876</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.01777811064931857</v>
+        <v>-0.01964325505325526</v>
       </c>
       <c r="Y73" t="n">
         <v>0.0915543173236761</v>
@@ -17161,19 +17161,19 @@
         <v>-0.07068732065503071</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.0313113294472181</v>
+        <v>0.03114714268861578</v>
       </c>
       <c r="AG73" t="n">
         <v>-0.02862827609637806</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.01247142269033203</v>
+        <v>0.01217858039161174</v>
       </c>
       <c r="AI73" t="n">
-        <v>-0.1191720081938918</v>
+        <v>-0.1193841890436231</v>
       </c>
       <c r="AJ73" t="n">
-        <v>-0.08658881287018762</v>
+        <v>-0.08673395338842733</v>
       </c>
       <c r="AK73" t="n">
         <v>0.01826405208337005</v>
@@ -17200,10 +17200,10 @@
         <v>-0.01145560986186977</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.04794502903171623</v>
+        <v>0.04723144269357773</v>
       </c>
       <c r="AT73" t="n">
-        <v>-0.0001978942142822395</v>
+        <v>-0.0004152234434850064</v>
       </c>
       <c r="AU73" t="n">
         <v>-0.02133247560780519</v>
@@ -17236,16 +17236,16 @@
         <v>0.006754393792910217</v>
       </c>
       <c r="BE73" t="n">
-        <v>-0.04231027473955511</v>
+        <v>-0.04251193991508501</v>
       </c>
       <c r="BF73" t="n">
         <v>0.0231735039859749</v>
       </c>
       <c r="BG73" t="n">
-        <v>-0.05223601965284799</v>
+        <v>-0.05227304216912944</v>
       </c>
       <c r="BH73" t="n">
-        <v>-0.07175056520959279</v>
+        <v>-0.07175456724214917</v>
       </c>
       <c r="BI73" t="n">
         <v>-0.01193016640558354</v>
@@ -17306,7 +17306,7 @@
         <v>-0.01667598576284227</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03418839735938253</v>
+        <v>0.03416540888229096</v>
       </c>
       <c r="E74" t="n">
         <v>0.016471384476494</v>
@@ -17366,7 +17366,7 @@
         <v>0.08139800474288188</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07309166731120542</v>
+        <v>0.0757717606380833</v>
       </c>
       <c r="Y74" t="n">
         <v>-0.1888253533971774</v>
@@ -17390,19 +17390,19 @@
         <v>0.01661691078322521</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.02641821518619616</v>
+        <v>0.02621619566965106</v>
       </c>
       <c r="AG74" t="n">
         <v>0.01675368096742799</v>
       </c>
       <c r="AH74" t="n">
-        <v>-0.02034454420150256</v>
+        <v>-0.02070534334476555</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.09638987151321818</v>
+        <v>0.09613067048128504</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0.1190312228798392</v>
+        <v>0.1188530784999179</v>
       </c>
       <c r="AK74" t="n">
         <v>-0.03954232159954014</v>
@@ -17429,10 +17429,10 @@
         <v>0.08449246188761275</v>
       </c>
       <c r="AS74" t="n">
-        <v>-0.0007512396540970299</v>
+        <v>-0.00170004634109724</v>
       </c>
       <c r="AT74" t="n">
-        <v>-0.03234750064236585</v>
+        <v>-0.03263274488087357</v>
       </c>
       <c r="AU74" t="n">
         <v>0.1400587516989397</v>
@@ -17465,16 +17465,16 @@
         <v>-0.08328436499346273</v>
       </c>
       <c r="BE74" t="n">
-        <v>0.1989535920215677</v>
+        <v>0.2000629965432837</v>
       </c>
       <c r="BF74" t="n">
         <v>-0.1911248527323184</v>
       </c>
       <c r="BG74" t="n">
-        <v>0.1896525631719903</v>
+        <v>0.1898344105279316</v>
       </c>
       <c r="BH74" t="n">
-        <v>0.1726071988676516</v>
+        <v>0.1726269004025852</v>
       </c>
       <c r="BI74" t="n">
         <v>0.04794370452844791</v>
@@ -17535,7 +17535,7 @@
         <v>-0.1656931059857868</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3223260234763438</v>
+        <v>0.323414830532935</v>
       </c>
       <c r="E75" t="n">
         <v>0.06500154879246263</v>
@@ -17595,7 +17595,7 @@
         <v>0.1480974622531134</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4276869895813211</v>
+        <v>0.4314406114056214</v>
       </c>
       <c r="Y75" t="n">
         <v>-0.599910852064836</v>
@@ -17619,19 +17619,19 @@
         <v>-0.08724184599191587</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.3777582482473542</v>
+        <v>0.3776784635627843</v>
       </c>
       <c r="AG75" t="n">
         <v>0.0212933459703001</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.006009884022402954</v>
+        <v>0.005865667380853772</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.1926879971211717</v>
+        <v>0.1925853937607585</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.5953489102866516</v>
+        <v>0.595278589176625</v>
       </c>
       <c r="AK75" t="n">
         <v>-0.09541931983567876</v>
@@ -17658,10 +17658,10 @@
         <v>0.6777757352922861</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.2573270593710174</v>
+        <v>0.2574368860510616</v>
       </c>
       <c r="AT75" t="n">
-        <v>-0.03543505496132868</v>
+        <v>-0.03542052485129384</v>
       </c>
       <c r="AU75" t="n">
         <v>0.5541287188801379</v>
@@ -17694,16 +17694,16 @@
         <v>-0.3421831382990313</v>
       </c>
       <c r="BE75" t="n">
-        <v>0.5241991409949599</v>
+        <v>0.5262026807896645</v>
       </c>
       <c r="BF75" t="n">
         <v>-0.5575868081826743</v>
       </c>
       <c r="BG75" t="n">
-        <v>0.6541669716241364</v>
+        <v>0.6542186503519613</v>
       </c>
       <c r="BH75" t="n">
-        <v>0.6344490689970946</v>
+        <v>0.6344537050260678</v>
       </c>
       <c r="BI75" t="n">
         <v>0.1624450040905012</v>
